--- a/Results and outputs/kirc/risultati_all4.xlsx
+++ b/Results and outputs/kirc/risultati_all4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/Il mio Drive/Metodi di discretizzazione/2. Data/A-Novel-Statistical-Test-For-Differential-Expression-Analysis/Results and outputs/kirc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE42E5A5-DE4C-1D4D-B65B-D334A4945CAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C8E8707B-A3EA-5B43-A8FB-B6D682E7B959}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11580" yWindow="5400" windowWidth="28040" windowHeight="17440"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="282">
   <si>
     <t>Term</t>
   </si>
@@ -43,15 +43,15 @@
     <t>num_N</t>
   </si>
   <si>
+    <t>num_m</t>
+  </si>
+  <si>
+    <t>num_n</t>
+  </si>
+  <si>
     <t>num_k</t>
   </si>
   <si>
-    <t>num_m</t>
-  </si>
-  <si>
-    <t>num_b</t>
-  </si>
-  <si>
     <t>num_x</t>
   </si>
   <si>
@@ -79,34 +79,52 @@
     <t>group</t>
   </si>
   <si>
-    <t>anatomical structure morphogenesis</t>
-  </si>
-  <si>
-    <t>GO:0009653</t>
-  </si>
-  <si>
-    <t>9.00E-08</t>
+    <t>phosphorylation</t>
+  </si>
+  <si>
+    <t>GO:0016310</t>
+  </si>
+  <si>
+    <t>&lt;1.11E-16</t>
+  </si>
+  <si>
+    <t>hy-test</t>
+  </si>
+  <si>
+    <t>regulation of GTPase activity</t>
+  </si>
+  <si>
+    <t>GO:0043087</t>
+  </si>
+  <si>
+    <t>1.93E-05</t>
+  </si>
+  <si>
+    <t>small GTPase mediated signal transduction</t>
+  </si>
+  <si>
+    <t>GO:0007264</t>
+  </si>
+  <si>
+    <t>4.08E-02</t>
+  </si>
+  <si>
+    <t>angiogenesis</t>
+  </si>
+  <si>
+    <t>GO:0001525</t>
   </si>
   <si>
     <t>mod t-test</t>
   </si>
   <si>
-    <t>angiogenesis</t>
-  </si>
-  <si>
-    <t>GO:0001525</t>
-  </si>
-  <si>
-    <t>1.11E-16</t>
-  </si>
-  <si>
-    <t>animal organ development</t>
-  </si>
-  <si>
-    <t>GO:0048513</t>
-  </si>
-  <si>
-    <t>4.66E-03</t>
+    <t>anion transport</t>
+  </si>
+  <si>
+    <t>GO:0006820</t>
+  </si>
+  <si>
+    <t>5.26E-15</t>
   </si>
   <si>
     <t>antigen processing and presentation of peptide or polysaccharide antigen via MHC class II</t>
@@ -115,7 +133,100 @@
     <t>GO:0002504</t>
   </si>
   <si>
-    <t>9.06E-09</t>
+    <t>cell development</t>
+  </si>
+  <si>
+    <t>GO:0048468</t>
+  </si>
+  <si>
+    <t>cell differentiation</t>
+  </si>
+  <si>
+    <t>GO:0030154</t>
+  </si>
+  <si>
+    <t>cell motility</t>
+  </si>
+  <si>
+    <t>GO:0048870</t>
+  </si>
+  <si>
+    <t>cell-cell signaling</t>
+  </si>
+  <si>
+    <t>GO:0007267</t>
+  </si>
+  <si>
+    <t>6.90E-08</t>
+  </si>
+  <si>
+    <t>endothelial cell proliferation</t>
+  </si>
+  <si>
+    <t>GO:0001935</t>
+  </si>
+  <si>
+    <t>enzyme linked receptor protein signaling pathway</t>
+  </si>
+  <si>
+    <t>GO:0007167</t>
+  </si>
+  <si>
+    <t>5.78E-03</t>
+  </si>
+  <si>
+    <t>epithelial cell proliferation</t>
+  </si>
+  <si>
+    <t>GO:0050673</t>
+  </si>
+  <si>
+    <t>epithelium development</t>
+  </si>
+  <si>
+    <t>GO:0060429</t>
+  </si>
+  <si>
+    <t>6.19E-16</t>
+  </si>
+  <si>
+    <t>gland development</t>
+  </si>
+  <si>
+    <t>GO:0048732</t>
+  </si>
+  <si>
+    <t>interleukin-2 production</t>
+  </si>
+  <si>
+    <t>GO:0032623</t>
+  </si>
+  <si>
+    <t>2.17E-05</t>
+  </si>
+  <si>
+    <t>kidney development</t>
+  </si>
+  <si>
+    <t>GO:0001822</t>
+  </si>
+  <si>
+    <t>kidney epithelium development</t>
+  </si>
+  <si>
+    <t>GO:0072073</t>
+  </si>
+  <si>
+    <t>localization</t>
+  </si>
+  <si>
+    <t>GO:0051179</t>
+  </si>
+  <si>
+    <t>localization of cell</t>
+  </si>
+  <si>
+    <t>GO:0051674</t>
   </si>
   <si>
     <t>locomotion</t>
@@ -124,58 +235,454 @@
     <t>GO:0040011</t>
   </si>
   <si>
+    <t>MAPK cascade</t>
+  </si>
+  <si>
+    <t>GO:0000165</t>
+  </si>
+  <si>
+    <t>3.89E-04</t>
+  </si>
+  <si>
     <t>movement of cell or subcellular component</t>
   </si>
   <si>
     <t>GO:0006928</t>
   </si>
   <si>
-    <t>nervous system development</t>
-  </si>
-  <si>
-    <t>GO:0007399</t>
-  </si>
-  <si>
-    <t>nervous system process</t>
-  </si>
-  <si>
-    <t>GO:0050877</t>
-  </si>
-  <si>
-    <t>1.63E-05</t>
-  </si>
-  <si>
-    <t>sensory perception</t>
-  </si>
-  <si>
-    <t>GO:0007600</t>
-  </si>
-  <si>
-    <t>synaptic signaling</t>
-  </si>
-  <si>
-    <t>GO:0099536</t>
-  </si>
-  <si>
-    <t>1.77E-03</t>
-  </si>
-  <si>
-    <t>system process</t>
-  </si>
-  <si>
-    <t>GO:0003008</t>
-  </si>
-  <si>
-    <t>1.96E-04</t>
-  </si>
-  <si>
-    <t>wound healing</t>
-  </si>
-  <si>
-    <t>GO:0042060</t>
-  </si>
-  <si>
-    <t>6.11E-09</t>
+    <t>negative regulation of secretion</t>
+  </si>
+  <si>
+    <t>GO:0051048</t>
+  </si>
+  <si>
+    <t>nephron development</t>
+  </si>
+  <si>
+    <t>GO:0072006</t>
+  </si>
+  <si>
+    <t>positive regulation of angiogenesis</t>
+  </si>
+  <si>
+    <t>GO:0045766</t>
+  </si>
+  <si>
+    <t>3.58E-10</t>
+  </si>
+  <si>
+    <t>positive regulation of cell migration</t>
+  </si>
+  <si>
+    <t>GO:0030335</t>
+  </si>
+  <si>
+    <t>2.53E-13</t>
+  </si>
+  <si>
+    <t>positive regulation of cell motility</t>
+  </si>
+  <si>
+    <t>GO:2000147</t>
+  </si>
+  <si>
+    <t>1.21E-13</t>
+  </si>
+  <si>
+    <t>positive regulation of cellular process</t>
+  </si>
+  <si>
+    <t>GO:0048522</t>
+  </si>
+  <si>
+    <t>positive regulation of gene expression</t>
+  </si>
+  <si>
+    <t>GO:0010628</t>
+  </si>
+  <si>
+    <t>positive regulation of locomotion</t>
+  </si>
+  <si>
+    <t>GO:0040017</t>
+  </si>
+  <si>
+    <t>2.48E-11</t>
+  </si>
+  <si>
+    <t>positive regulation of signal transduction</t>
+  </si>
+  <si>
+    <t>GO:0009967</t>
+  </si>
+  <si>
+    <t>9.97E-04</t>
+  </si>
+  <si>
+    <t>positive regulation of signaling</t>
+  </si>
+  <si>
+    <t>GO:0023056</t>
+  </si>
+  <si>
+    <t>1.86E-05</t>
+  </si>
+  <si>
+    <t>protein phosphorylation</t>
+  </si>
+  <si>
+    <t>GO:0006468</t>
+  </si>
+  <si>
+    <t>regulation of angiogenesis</t>
+  </si>
+  <si>
+    <t>GO:0045765</t>
+  </si>
+  <si>
+    <t>regulation of cell differentiation</t>
+  </si>
+  <si>
+    <t>GO:0045595</t>
+  </si>
+  <si>
+    <t>2.30E-05</t>
+  </si>
+  <si>
+    <t>regulation of cell migration</t>
+  </si>
+  <si>
+    <t>GO:0030334</t>
+  </si>
+  <si>
+    <t>regulation of cell motility</t>
+  </si>
+  <si>
+    <t>GO:2000145</t>
+  </si>
+  <si>
+    <t>regulation of endothelial cell proliferation</t>
+  </si>
+  <si>
+    <t>GO:0001936</t>
+  </si>
+  <si>
+    <t>regulation of epithelial cell proliferation</t>
+  </si>
+  <si>
+    <t>GO:0050678</t>
+  </si>
+  <si>
+    <t>regulation of locomotion</t>
+  </si>
+  <si>
+    <t>GO:0040012</t>
+  </si>
+  <si>
+    <t>regulation of membrane potential</t>
+  </si>
+  <si>
+    <t>GO:0042391</t>
+  </si>
+  <si>
+    <t>3.06E-09</t>
+  </si>
+  <si>
+    <t>regulation of phosphorylation</t>
+  </si>
+  <si>
+    <t>GO:0042325</t>
+  </si>
+  <si>
+    <t>regulation of protein phosphorylation</t>
+  </si>
+  <si>
+    <t>GO:0001932</t>
+  </si>
+  <si>
+    <t>regulation of secretion</t>
+  </si>
+  <si>
+    <t>GO:0051046</t>
+  </si>
+  <si>
+    <t>regulation of secretion by cell</t>
+  </si>
+  <si>
+    <t>GO:1903530</t>
+  </si>
+  <si>
+    <t>regulation of vasculature development</t>
+  </si>
+  <si>
+    <t>GO:1901342</t>
+  </si>
+  <si>
+    <t>9.77E-09</t>
+  </si>
+  <si>
+    <t>renal system development</t>
+  </si>
+  <si>
+    <t>GO:0072001</t>
+  </si>
+  <si>
+    <t>renal tubule morphogenesis</t>
+  </si>
+  <si>
+    <t>GO:0061333</t>
+  </si>
+  <si>
+    <t>secretion</t>
+  </si>
+  <si>
+    <t>GO:0046903</t>
+  </si>
+  <si>
+    <t>secretion by cell</t>
+  </si>
+  <si>
+    <t>GO:0032940</t>
+  </si>
+  <si>
+    <t>tissue development</t>
+  </si>
+  <si>
+    <t>GO:0009888</t>
+  </si>
+  <si>
+    <t>transmembrane receptor protein tyrosine kinase signaling pathway</t>
+  </si>
+  <si>
+    <t>GO:0007169</t>
+  </si>
+  <si>
+    <t>urogenital system development</t>
+  </si>
+  <si>
+    <t>GO:0001655</t>
+  </si>
+  <si>
+    <t>vasculature development</t>
+  </si>
+  <si>
+    <t>GO:0001944</t>
+  </si>
+  <si>
+    <t>regulation of apoptotic process</t>
+  </si>
+  <si>
+    <t>GO:0042981</t>
+  </si>
+  <si>
+    <t>sam</t>
+  </si>
+  <si>
+    <t>regulation of programmed cell death</t>
+  </si>
+  <si>
+    <t>GO:0043067</t>
+  </si>
+  <si>
+    <t>antigen processing and presentation</t>
+  </si>
+  <si>
+    <t>GO:0019882</t>
+  </si>
+  <si>
+    <t>2.28E-09</t>
+  </si>
+  <si>
+    <t>hy-test/mod t-test</t>
+  </si>
+  <si>
+    <t>biological regulation</t>
+  </si>
+  <si>
+    <t>GO:0065007</t>
+  </si>
+  <si>
+    <t>cation transport</t>
+  </si>
+  <si>
+    <t>GO:0006812</t>
+  </si>
+  <si>
+    <t>4.21E-16</t>
+  </si>
+  <si>
+    <t>cell migration</t>
+  </si>
+  <si>
+    <t>GO:0016477</t>
+  </si>
+  <si>
+    <t>cellular homeostasis</t>
+  </si>
+  <si>
+    <t>GO:0019725</t>
+  </si>
+  <si>
+    <t>7.16E-06</t>
+  </si>
+  <si>
+    <t>G protein-coupled receptor signaling pathway</t>
+  </si>
+  <si>
+    <t>GO:0007186</t>
+  </si>
+  <si>
+    <t>3.88E-02</t>
+  </si>
+  <si>
+    <t>natural killer cell mediated cytotoxicity</t>
+  </si>
+  <si>
+    <t>GO:0042267</t>
+  </si>
+  <si>
+    <t>5.44E-03</t>
+  </si>
+  <si>
+    <t>positive regulation of molecular function</t>
+  </si>
+  <si>
+    <t>GO:0044093</t>
+  </si>
+  <si>
+    <t>5.07E-14</t>
+  </si>
+  <si>
+    <t>regulation of cellular process</t>
+  </si>
+  <si>
+    <t>GO:0050794</t>
+  </si>
+  <si>
+    <t>6,1324504088175e-312</t>
+  </si>
+  <si>
+    <t>1,79283991363664e-310</t>
+  </si>
+  <si>
+    <t>regulation of hydrolase activity</t>
+  </si>
+  <si>
+    <t>GO:0051336</t>
+  </si>
+  <si>
+    <t>regulation of molecular function</t>
+  </si>
+  <si>
+    <t>GO:0065009</t>
+  </si>
+  <si>
+    <t>regulation of signal transduction</t>
+  </si>
+  <si>
+    <t>GO:0009966</t>
+  </si>
+  <si>
+    <t>regulation of signaling</t>
+  </si>
+  <si>
+    <t>GO:0023051</t>
+  </si>
+  <si>
+    <t>apoptotic process</t>
+  </si>
+  <si>
+    <t>GO:0006915</t>
+  </si>
+  <si>
+    <t>hy-test/sam</t>
+  </si>
+  <si>
+    <t>cell death</t>
+  </si>
+  <si>
+    <t>GO:0008219</t>
+  </si>
+  <si>
+    <t>programmed cell death</t>
+  </si>
+  <si>
+    <t>GO:0012501</t>
+  </si>
+  <si>
+    <t>regulation of transport</t>
+  </si>
+  <si>
+    <t>GO:0051049</t>
+  </si>
+  <si>
+    <t>7.96E-05</t>
+  </si>
+  <si>
+    <t>mod t-test/sam</t>
+  </si>
+  <si>
+    <t>biological adhesion</t>
+  </si>
+  <si>
+    <t>GO:0022610</t>
+  </si>
+  <si>
+    <t>4.95E-14</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>cell activation</t>
+  </si>
+  <si>
+    <t>GO:0001775</t>
+  </si>
+  <si>
+    <t>cell adhesion</t>
+  </si>
+  <si>
+    <t>GO:0007155</t>
+  </si>
+  <si>
+    <t>cell communication</t>
+  </si>
+  <si>
+    <t>GO:0007154</t>
+  </si>
+  <si>
+    <t>1.86E-04</t>
+  </si>
+  <si>
+    <t>cell killing</t>
+  </si>
+  <si>
+    <t>GO:0001906</t>
+  </si>
+  <si>
+    <t>5.59E-15</t>
+  </si>
+  <si>
+    <t>cell population proliferation</t>
+  </si>
+  <si>
+    <t>GO:0008283</t>
+  </si>
+  <si>
+    <t>1.63E-09</t>
+  </si>
+  <si>
+    <t>cell surface receptor signaling pathway</t>
+  </si>
+  <si>
+    <t>GO:0007166</t>
+  </si>
+  <si>
+    <t>cell-cell adhesion</t>
+  </si>
+  <si>
+    <t>GO:0098609</t>
   </si>
   <si>
     <t>hematopoietic or lymphoid organ development</t>
@@ -184,19 +691,181 @@
     <t>GO:0048534</t>
   </si>
   <si>
-    <t>2.54E-08</t>
-  </si>
-  <si>
-    <t>all</t>
-  </si>
-  <si>
-    <t>response to stimulus</t>
-  </si>
-  <si>
-    <t>GO:0050896</t>
-  </si>
-  <si>
-    <t>2.59E-03</t>
+    <t>hemopoiesis</t>
+  </si>
+  <si>
+    <t>GO:0030097</t>
+  </si>
+  <si>
+    <t>immune response</t>
+  </si>
+  <si>
+    <t>GO:0006955</t>
+  </si>
+  <si>
+    <t>3.09E-06</t>
+  </si>
+  <si>
+    <t>immune system development</t>
+  </si>
+  <si>
+    <t>GO:0002520</t>
+  </si>
+  <si>
+    <t>6.31E-04</t>
+  </si>
+  <si>
+    <t>immune system process</t>
+  </si>
+  <si>
+    <t>GO:0002376</t>
+  </si>
+  <si>
+    <t>intracellular signal transduction</t>
+  </si>
+  <si>
+    <t>GO:0035556</t>
+  </si>
+  <si>
+    <t>1.27E-02</t>
+  </si>
+  <si>
+    <t>leukocyte mediated cytotoxicity</t>
+  </si>
+  <si>
+    <t>GO:0001909</t>
+  </si>
+  <si>
+    <t>6.87E-09</t>
+  </si>
+  <si>
+    <t>leukocyte proliferation</t>
+  </si>
+  <si>
+    <t>GO:0070661</t>
+  </si>
+  <si>
+    <t>3.07E-02</t>
+  </si>
+  <si>
+    <t>lymphocyte proliferation</t>
+  </si>
+  <si>
+    <t>GO:0046651</t>
+  </si>
+  <si>
+    <t>3.88E-07</t>
+  </si>
+  <si>
+    <t>mononuclear cell proliferation</t>
+  </si>
+  <si>
+    <t>GO:0032943</t>
+  </si>
+  <si>
+    <t>2.74E-03</t>
+  </si>
+  <si>
+    <t>negative regulation of cell activation</t>
+  </si>
+  <si>
+    <t>GO:0050866</t>
+  </si>
+  <si>
+    <t>1.84E-05</t>
+  </si>
+  <si>
+    <t>negative regulation of cell adhesion</t>
+  </si>
+  <si>
+    <t>GO:0007162</t>
+  </si>
+  <si>
+    <t>2.82E-04</t>
+  </si>
+  <si>
+    <t>positive regulation of cell adhesion</t>
+  </si>
+  <si>
+    <t>GO:0045785</t>
+  </si>
+  <si>
+    <t>3.61E-03</t>
+  </si>
+  <si>
+    <t>regulation of cell activation</t>
+  </si>
+  <si>
+    <t>GO:0050865</t>
+  </si>
+  <si>
+    <t>regulation of cell adhesion</t>
+  </si>
+  <si>
+    <t>GO:0030155</t>
+  </si>
+  <si>
+    <t>regulation of cell population proliferation</t>
+  </si>
+  <si>
+    <t>GO:0042127</t>
+  </si>
+  <si>
+    <t>7.21E-03</t>
+  </si>
+  <si>
+    <t>regulation of cell-cell adhesion</t>
+  </si>
+  <si>
+    <t>GO:0022407</t>
+  </si>
+  <si>
+    <t>2.69E-13</t>
+  </si>
+  <si>
+    <t>regulation of intracellular signal transduction</t>
+  </si>
+  <si>
+    <t>GO:1902531</t>
+  </si>
+  <si>
+    <t>5.76E-04</t>
+  </si>
+  <si>
+    <t>regulation of localization</t>
+  </si>
+  <si>
+    <t>GO:0032879</t>
+  </si>
+  <si>
+    <t>3.37E-12</t>
+  </si>
+  <si>
+    <t>response to cytokine</t>
+  </si>
+  <si>
+    <t>GO:0034097</t>
+  </si>
+  <si>
+    <t>signal transduction</t>
+  </si>
+  <si>
+    <t>GO:0007165</t>
+  </si>
+  <si>
+    <t>signaling</t>
+  </si>
+  <si>
+    <t>GO:0023052</t>
+  </si>
+  <si>
+    <t>T cell proliferation</t>
+  </si>
+  <si>
+    <t>GO:0042098</t>
+  </si>
+  <si>
+    <t>1.78E-05</t>
   </si>
 </sst>
 </file>
@@ -1038,10 +1707,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S15"/>
+  <dimension ref="A1:S106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1052,17 +1721,19 @@
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.1640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.6640625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
@@ -1129,49 +1800,49 @@
         <v>19</v>
       </c>
       <c r="B2">
-        <v>2132</v>
+        <v>1551</v>
       </c>
       <c r="C2">
-        <v>390</v>
+        <v>333</v>
       </c>
       <c r="D2">
-        <v>632</v>
+        <v>424</v>
       </c>
       <c r="E2">
-        <v>1106</v>
+        <v>836</v>
       </c>
       <c r="F2" t="s">
         <v>20</v>
       </c>
       <c r="G2">
-        <v>281804</v>
+        <v>18478013</v>
       </c>
       <c r="H2">
-        <v>5949</v>
+        <v>79341</v>
       </c>
       <c r="I2">
-        <v>20854</v>
+        <v>18398672</v>
       </c>
       <c r="J2">
-        <v>260950</v>
+        <v>253918</v>
       </c>
       <c r="K2">
-        <v>571</v>
+        <v>1484</v>
       </c>
       <c r="L2" s="1">
-        <v>1.8112756873113899E-10</v>
+        <v>2.0330043858502799E-30</v>
       </c>
       <c r="M2" s="1">
-        <v>9.0020401659375902E-8</v>
+        <v>1.01040317976759E-27</v>
       </c>
       <c r="N2" s="1">
-        <v>1.00022668510418E-8</v>
+        <v>1.8370966904865199E-29</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -1188,49 +1859,49 @@
         <v>23</v>
       </c>
       <c r="B3">
-        <v>443</v>
+        <v>307</v>
       </c>
       <c r="C3">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="D3">
-        <v>164</v>
+        <v>104</v>
       </c>
       <c r="E3">
-        <v>245</v>
+        <v>177</v>
       </c>
       <c r="F3" t="s">
         <v>24</v>
       </c>
       <c r="G3">
-        <v>112087</v>
+        <v>18478013</v>
       </c>
       <c r="H3">
-        <v>3898</v>
+        <v>79341</v>
       </c>
       <c r="I3">
-        <v>57766</v>
+        <v>18398672</v>
       </c>
       <c r="J3">
-        <v>54321</v>
+        <v>9203</v>
       </c>
       <c r="K3">
-        <v>2561</v>
+        <v>78</v>
       </c>
       <c r="L3" s="1">
-        <v>4.8171680779213099E-74</v>
-      </c>
-      <c r="M3" s="1">
-        <v>2.3941325347268899E-71</v>
-      </c>
-      <c r="N3" s="1">
-        <v>1.19706626736345E-71</v>
+        <v>3.8874363766155801E-8</v>
+      </c>
+      <c r="M3">
+        <v>1.93205587917794E-5</v>
+      </c>
+      <c r="N3">
+        <v>2.2207538841125799E-7</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -1247,49 +1918,49 @@
         <v>26</v>
       </c>
       <c r="B4">
-        <v>2646</v>
+        <v>468</v>
       </c>
       <c r="C4">
-        <v>527</v>
+        <v>121</v>
       </c>
       <c r="D4">
-        <v>801</v>
+        <v>144</v>
       </c>
       <c r="E4">
-        <v>1405</v>
+        <v>270</v>
       </c>
       <c r="F4" t="s">
         <v>27</v>
       </c>
       <c r="G4">
-        <v>105432</v>
+        <v>18478013</v>
       </c>
       <c r="H4">
-        <v>3453</v>
+        <v>79341</v>
       </c>
       <c r="I4">
-        <v>8489</v>
+        <v>18398672</v>
       </c>
       <c r="J4">
-        <v>96943</v>
+        <v>5597</v>
       </c>
       <c r="K4">
-        <v>348</v>
+        <v>45</v>
       </c>
       <c r="L4">
-        <v>9.3685515387464204E-6</v>
+        <v>8.2013432193391497E-5</v>
       </c>
       <c r="M4">
-        <v>4.6561701147569698E-3</v>
+        <v>4.0760675800115602E-2</v>
       </c>
       <c r="N4">
-        <v>3.32583579625498E-4</v>
+        <v>3.8819691238205299E-4</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -1306,43 +1977,43 @@
         <v>29</v>
       </c>
       <c r="B5">
-        <v>33</v>
+        <v>443</v>
       </c>
       <c r="C5">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="D5">
-        <v>22</v>
+        <v>164</v>
       </c>
       <c r="E5">
-        <v>23</v>
+        <v>245</v>
       </c>
       <c r="F5" t="s">
         <v>30</v>
       </c>
       <c r="G5">
-        <v>12668</v>
+        <v>18478013</v>
       </c>
       <c r="H5">
-        <v>320</v>
+        <v>79341</v>
       </c>
       <c r="I5">
-        <v>4009</v>
+        <v>18398672</v>
       </c>
       <c r="J5">
-        <v>8659</v>
+        <v>112090</v>
       </c>
       <c r="K5">
-        <v>158</v>
-      </c>
-      <c r="L5" s="1">
-        <v>1.8228993692999301E-11</v>
-      </c>
-      <c r="M5" s="1">
-        <v>9.0598098654206595E-9</v>
-      </c>
-      <c r="N5" s="1">
-        <v>1.2942585522029501E-9</v>
+        <v>2612</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -1354,10 +2025,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="s">
+        <v>21</v>
+      </c>
+      <c r="S5" t="s">
         <v>31</v>
-      </c>
-      <c r="S5" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
@@ -1365,43 +2036,43 @@
         <v>32</v>
       </c>
       <c r="B6">
-        <v>1445</v>
+        <v>378</v>
       </c>
       <c r="C6">
-        <v>299</v>
+        <v>79</v>
       </c>
       <c r="D6">
-        <v>487</v>
+        <v>133</v>
       </c>
       <c r="E6">
-        <v>780</v>
+        <v>193</v>
       </c>
       <c r="F6" t="s">
         <v>33</v>
       </c>
       <c r="G6">
-        <v>223242</v>
+        <v>18478013</v>
       </c>
       <c r="H6">
-        <v>3574</v>
+        <v>79341</v>
       </c>
       <c r="I6">
-        <v>57670</v>
+        <v>18398672</v>
       </c>
       <c r="J6">
-        <v>165572</v>
+        <v>35592</v>
       </c>
       <c r="K6">
-        <v>1322</v>
+        <v>269</v>
       </c>
       <c r="L6" s="1">
-        <v>1.09247317773234E-49</v>
+        <v>1.05848567945007E-17</v>
       </c>
       <c r="M6" s="1">
-        <v>5.4295916933297399E-47</v>
+        <v>5.2606738268668303E-15</v>
       </c>
       <c r="N6" s="1">
-        <v>1.8098638977765799E-47</v>
+        <v>8.0933443490258906E-17</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -1413,54 +2084,54 @@
         <v>0</v>
       </c>
       <c r="R6" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="S6" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B7">
-        <v>1672</v>
+        <v>33</v>
       </c>
       <c r="C7">
-        <v>334</v>
+        <v>13</v>
       </c>
       <c r="D7">
-        <v>528</v>
+        <v>22</v>
       </c>
       <c r="E7">
-        <v>878</v>
+        <v>23</v>
       </c>
       <c r="F7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G7">
-        <v>189425</v>
+        <v>18478013</v>
       </c>
       <c r="H7">
-        <v>6235</v>
+        <v>79341</v>
       </c>
       <c r="I7">
-        <v>62843</v>
+        <v>18398672</v>
       </c>
       <c r="J7">
-        <v>126582</v>
+        <v>12668</v>
       </c>
       <c r="K7">
-        <v>3563</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
+        <v>161</v>
+      </c>
+      <c r="L7" s="1">
+        <v>7.4296918918792796E-32</v>
+      </c>
+      <c r="M7" s="1">
+        <v>3.692556870264E-29</v>
+      </c>
+      <c r="N7" s="1">
+        <v>6.9670884344603796E-31</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -1472,54 +2143,54 @@
         <v>0</v>
       </c>
       <c r="R7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="S7" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B8">
-        <v>1930</v>
+        <v>1649</v>
       </c>
       <c r="C8">
-        <v>338</v>
+        <v>303</v>
       </c>
       <c r="D8">
-        <v>540</v>
+        <v>472</v>
       </c>
       <c r="E8">
-        <v>976</v>
+        <v>826</v>
       </c>
       <c r="F8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G8">
-        <v>188439</v>
+        <v>18478013</v>
       </c>
       <c r="H8">
-        <v>3006</v>
+        <v>79341</v>
       </c>
       <c r="I8">
-        <v>14991</v>
+        <v>18398672</v>
       </c>
       <c r="J8">
-        <v>173448</v>
+        <v>860431</v>
       </c>
       <c r="K8">
-        <v>408</v>
-      </c>
-      <c r="L8" s="1">
-        <v>4.0109757290360403E-26</v>
-      </c>
-      <c r="M8" s="1">
-        <v>1.99345493733091E-23</v>
-      </c>
-      <c r="N8" s="1">
-        <v>3.9869098746618201E-24</v>
+        <v>7213</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -1531,54 +2202,54 @@
         <v>0</v>
       </c>
       <c r="R8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="S8" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B9">
-        <v>717</v>
+        <v>3131</v>
       </c>
       <c r="C9">
-        <v>138</v>
+        <v>615</v>
       </c>
       <c r="D9">
-        <v>250</v>
+        <v>938</v>
       </c>
       <c r="E9">
-        <v>383</v>
+        <v>1651</v>
       </c>
       <c r="F9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G9">
-        <v>63030</v>
+        <v>18478013</v>
       </c>
       <c r="H9">
-        <v>582</v>
+        <v>79341</v>
       </c>
       <c r="I9">
-        <v>3711</v>
+        <v>18398672</v>
       </c>
       <c r="J9">
-        <v>59319</v>
+        <v>370592</v>
       </c>
       <c r="K9">
-        <v>69</v>
+        <v>2493</v>
       </c>
       <c r="L9" s="1">
-        <v>3.27849575214555E-8</v>
-      </c>
-      <c r="M9">
-        <v>1.62941238881634E-5</v>
-      </c>
-      <c r="N9">
-        <v>1.6294123888163399E-6</v>
+        <v>1.2671117441580401E-99</v>
+      </c>
+      <c r="M9" s="1">
+        <v>6.2975453684654598E-97</v>
+      </c>
+      <c r="N9" s="1">
+        <v>1.8522192260192498E-98</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -1590,10 +2261,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="S9" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
@@ -1601,43 +2272,43 @@
         <v>41</v>
       </c>
       <c r="B10">
-        <v>348</v>
+        <v>1319</v>
       </c>
       <c r="C10">
-        <v>78</v>
+        <v>281</v>
       </c>
       <c r="D10">
-        <v>131</v>
+        <v>452</v>
       </c>
       <c r="E10">
-        <v>203</v>
+        <v>721</v>
       </c>
       <c r="F10" t="s">
         <v>42</v>
       </c>
       <c r="G10">
-        <v>243588</v>
+        <v>18478013</v>
       </c>
       <c r="H10">
-        <v>1917</v>
+        <v>79341</v>
       </c>
       <c r="I10">
-        <v>18349</v>
+        <v>18398672</v>
       </c>
       <c r="J10">
-        <v>225239</v>
+        <v>178884</v>
       </c>
       <c r="K10">
-        <v>284</v>
+        <v>1609</v>
       </c>
       <c r="L10" s="1">
-        <v>1.51410693737223E-27</v>
+        <v>8.5047947302000595E-157</v>
       </c>
       <c r="M10" s="1">
-        <v>7.5251114787400004E-25</v>
+        <v>4.22688298090943E-154</v>
       </c>
       <c r="N10" s="1">
-        <v>1.8812778696850001E-25</v>
+        <v>1.5096010646105101E-155</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -1649,10 +2320,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="S10" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
@@ -1660,43 +2331,43 @@
         <v>43</v>
       </c>
       <c r="B11">
-        <v>532</v>
+        <v>1232</v>
       </c>
       <c r="C11">
-        <v>105</v>
+        <v>248</v>
       </c>
       <c r="D11">
-        <v>191</v>
+        <v>411</v>
       </c>
       <c r="E11">
-        <v>279</v>
+        <v>654</v>
       </c>
       <c r="F11" t="s">
         <v>44</v>
       </c>
       <c r="G11">
-        <v>44430</v>
+        <v>18478013</v>
       </c>
       <c r="H11">
-        <v>283</v>
+        <v>79341</v>
       </c>
       <c r="I11">
-        <v>1117</v>
+        <v>18398672</v>
       </c>
       <c r="J11">
-        <v>43313</v>
+        <v>8507</v>
       </c>
       <c r="K11">
-        <v>22</v>
-      </c>
-      <c r="L11">
-        <v>3.5585345090761102E-6</v>
-      </c>
-      <c r="M11">
-        <v>1.76859165101082E-3</v>
-      </c>
-      <c r="N11">
-        <v>1.4738263758423499E-4</v>
+        <v>81</v>
+      </c>
+      <c r="L11" s="1">
+        <v>1.38740314836559E-10</v>
+      </c>
+      <c r="M11" s="1">
+        <v>6.8953936473769604E-8</v>
+      </c>
+      <c r="N11" s="1">
+        <v>8.6192420592212003E-10</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -1711,7 +2382,7 @@
         <v>45</v>
       </c>
       <c r="S11" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
@@ -1719,43 +2390,43 @@
         <v>46</v>
       </c>
       <c r="B12">
-        <v>1322</v>
+        <v>127</v>
       </c>
       <c r="C12">
-        <v>259</v>
+        <v>33</v>
       </c>
       <c r="D12">
-        <v>442</v>
+        <v>56</v>
       </c>
       <c r="E12">
-        <v>698</v>
+        <v>75</v>
       </c>
       <c r="F12" t="s">
         <v>47</v>
       </c>
       <c r="G12">
-        <v>180803</v>
+        <v>18478013</v>
       </c>
       <c r="H12">
-        <v>2911</v>
+        <v>79341</v>
       </c>
       <c r="I12">
-        <v>17040</v>
+        <v>18398672</v>
       </c>
       <c r="J12">
-        <v>163763</v>
+        <v>39181</v>
       </c>
       <c r="K12">
-        <v>355</v>
-      </c>
-      <c r="L12">
-        <v>3.9501672004716699E-7</v>
-      </c>
-      <c r="M12">
-        <v>1.9632330986344199E-4</v>
-      </c>
-      <c r="N12">
-        <v>1.7847573623949298E-5</v>
+        <v>538</v>
+      </c>
+      <c r="L12" s="1">
+        <v>1.6922100339623299E-114</v>
+      </c>
+      <c r="M12" s="1">
+        <v>8.4102838687927808E-112</v>
+      </c>
+      <c r="N12" s="1">
+        <v>2.62821370899774E-113</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -1767,187 +2438,5556 @@
         <v>0</v>
       </c>
       <c r="R12" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="S12" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13">
+        <v>787</v>
+      </c>
+      <c r="C13">
+        <v>160</v>
+      </c>
+      <c r="D13">
+        <v>241</v>
+      </c>
+      <c r="E13">
+        <v>404</v>
+      </c>
+      <c r="F13" t="s">
         <v>49</v>
       </c>
-      <c r="B13">
-        <v>350</v>
-      </c>
-      <c r="C13">
-        <v>79</v>
-      </c>
-      <c r="D13">
-        <v>124</v>
-      </c>
-      <c r="E13">
-        <v>199</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="G13">
+        <v>18478013</v>
+      </c>
+      <c r="H13">
+        <v>79341</v>
+      </c>
+      <c r="I13">
+        <v>18398672</v>
+      </c>
+      <c r="J13">
+        <v>8998</v>
+      </c>
+      <c r="K13">
+        <v>68</v>
+      </c>
+      <c r="L13">
+        <v>1.16304764169369E-5</v>
+      </c>
+      <c r="M13">
+        <v>5.78034677921765E-3</v>
+      </c>
+      <c r="N13">
+        <v>5.7803467792176498E-5</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>1</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13" t="s">
         <v>50</v>
       </c>
-      <c r="G13">
-        <v>122186</v>
-      </c>
-      <c r="H13">
-        <v>1995</v>
-      </c>
-      <c r="I13">
-        <v>20060</v>
-      </c>
-      <c r="J13">
-        <v>102126</v>
-      </c>
-      <c r="K13">
-        <v>442</v>
-      </c>
-      <c r="L13" s="1">
-        <v>1.2303435647973201E-11</v>
-      </c>
-      <c r="M13" s="1">
-        <v>6.1148075170426796E-9</v>
-      </c>
-      <c r="N13" s="1">
-        <v>1.0191345861737801E-9</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13">
-        <v>1</v>
-      </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-      <c r="R13" t="s">
-        <v>51</v>
-      </c>
       <c r="S13" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14">
+        <v>326</v>
+      </c>
+      <c r="C14">
+        <v>73</v>
+      </c>
+      <c r="D14">
+        <v>117</v>
+      </c>
+      <c r="E14">
+        <v>187</v>
+      </c>
+      <c r="F14" t="s">
         <v>52</v>
       </c>
-      <c r="B14">
-        <v>733</v>
-      </c>
-      <c r="C14">
-        <v>201</v>
-      </c>
-      <c r="D14">
-        <v>262</v>
-      </c>
-      <c r="E14">
-        <v>442</v>
-      </c>
-      <c r="F14" t="s">
-        <v>53</v>
-      </c>
       <c r="G14">
-        <v>170231</v>
+        <v>18478013</v>
       </c>
       <c r="H14">
-        <v>5954</v>
+        <v>79341</v>
       </c>
       <c r="I14">
-        <v>62522</v>
+        <v>18398672</v>
       </c>
       <c r="J14">
-        <v>107709</v>
+        <v>105821</v>
       </c>
       <c r="K14">
-        <v>2425</v>
-      </c>
-      <c r="L14" s="1">
-        <v>5.1121158921276902E-11</v>
-      </c>
-      <c r="M14" s="1">
-        <v>2.54072159838746E-8</v>
-      </c>
-      <c r="N14" s="1">
-        <v>3.17590199798433E-9</v>
+        <v>1507</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P14">
         <v>1</v>
       </c>
       <c r="Q14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R14" t="s">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="S14" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15">
+        <v>855</v>
+      </c>
+      <c r="C15">
+        <v>152</v>
+      </c>
+      <c r="D15">
+        <v>260</v>
+      </c>
+      <c r="E15">
+        <v>459</v>
+      </c>
+      <c r="F15" t="s">
+        <v>54</v>
+      </c>
+      <c r="G15">
+        <v>18478013</v>
+      </c>
+      <c r="H15">
+        <v>79341</v>
+      </c>
+      <c r="I15">
+        <v>18398672</v>
+      </c>
+      <c r="J15">
+        <v>41563</v>
+      </c>
+      <c r="K15">
+        <v>307</v>
+      </c>
+      <c r="L15" s="1">
+        <v>1.24450801147846E-18</v>
+      </c>
+      <c r="M15" s="1">
+        <v>6.1852048170479601E-16</v>
+      </c>
+      <c r="N15" s="1">
+        <v>9.6643825266374393E-18</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>1</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15" t="s">
+        <v>55</v>
+      </c>
+      <c r="S15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>56</v>
       </c>
-      <c r="B15">
-        <v>6447</v>
-      </c>
-      <c r="C15">
-        <v>1355</v>
-      </c>
-      <c r="D15">
-        <v>1878</v>
-      </c>
-      <c r="E15">
-        <v>3469</v>
-      </c>
-      <c r="F15" t="s">
+      <c r="B16">
+        <v>353</v>
+      </c>
+      <c r="C16">
+        <v>76</v>
+      </c>
+      <c r="D16">
+        <v>121</v>
+      </c>
+      <c r="E16">
+        <v>199</v>
+      </c>
+      <c r="F16" t="s">
         <v>57</v>
       </c>
-      <c r="G15">
-        <v>42688</v>
-      </c>
-      <c r="H15">
-        <v>348</v>
-      </c>
-      <c r="I15">
-        <v>1324</v>
-      </c>
-      <c r="J15">
-        <v>41364</v>
-      </c>
-      <c r="K15">
+      <c r="G16">
+        <v>18478013</v>
+      </c>
+      <c r="H16">
+        <v>79341</v>
+      </c>
+      <c r="I16">
+        <v>18398672</v>
+      </c>
+      <c r="J16">
+        <v>25175</v>
+      </c>
+      <c r="K16">
+        <v>273</v>
+      </c>
+      <c r="L16" s="1">
+        <v>1.16016869578964E-40</v>
+      </c>
+      <c r="M16" s="1">
+        <v>5.7660384180744902E-38</v>
+      </c>
+      <c r="N16" s="1">
+        <v>1.20125800376552E-39</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>1</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16" t="s">
+        <v>21</v>
+      </c>
+      <c r="S16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17">
+        <v>58</v>
+      </c>
+      <c r="C17">
+        <v>24</v>
+      </c>
+      <c r="D17">
+        <v>32</v>
+      </c>
+      <c r="E17">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>59</v>
+      </c>
+      <c r="G17">
+        <v>18478013</v>
+      </c>
+      <c r="H17">
+        <v>79341</v>
+      </c>
+      <c r="I17">
+        <v>18398672</v>
+      </c>
+      <c r="J17">
+        <v>6526</v>
+      </c>
+      <c r="K17">
+        <v>61</v>
+      </c>
+      <c r="L17" s="1">
+        <v>4.3604569655417601E-8</v>
+      </c>
+      <c r="M17">
+        <v>2.1671471118742599E-5</v>
+      </c>
+      <c r="N17">
+        <v>2.4626671725843801E-7</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>1</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17" t="s">
+        <v>60</v>
+      </c>
+      <c r="S17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18">
+        <v>260</v>
+      </c>
+      <c r="C18">
+        <v>55</v>
+      </c>
+      <c r="D18">
+        <v>101</v>
+      </c>
+      <c r="E18">
+        <v>147</v>
+      </c>
+      <c r="F18" t="s">
+        <v>62</v>
+      </c>
+      <c r="G18">
+        <v>18478013</v>
+      </c>
+      <c r="H18">
+        <v>79341</v>
+      </c>
+      <c r="I18">
+        <v>18398672</v>
+      </c>
+      <c r="J18">
+        <v>60944</v>
+      </c>
+      <c r="K18">
+        <v>9650</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>1</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18" t="s">
+        <v>21</v>
+      </c>
+      <c r="S18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19">
+        <v>120</v>
+      </c>
+      <c r="C19">
+        <v>27</v>
+      </c>
+      <c r="D19">
+        <v>52</v>
+      </c>
+      <c r="E19">
+        <v>70</v>
+      </c>
+      <c r="F19" t="s">
+        <v>64</v>
+      </c>
+      <c r="G19">
+        <v>18478013</v>
+      </c>
+      <c r="H19">
+        <v>79341</v>
+      </c>
+      <c r="I19">
+        <v>18398672</v>
+      </c>
+      <c r="J19">
+        <v>2143</v>
+      </c>
+      <c r="K19">
+        <v>303</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>1</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19" t="s">
+        <v>21</v>
+      </c>
+      <c r="S19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20">
+        <v>4974</v>
+      </c>
+      <c r="C20">
+        <v>947</v>
+      </c>
+      <c r="D20">
+        <v>1297</v>
+      </c>
+      <c r="E20">
+        <v>2567</v>
+      </c>
+      <c r="F20" t="s">
+        <v>66</v>
+      </c>
+      <c r="G20">
+        <v>18478013</v>
+      </c>
+      <c r="H20">
+        <v>79341</v>
+      </c>
+      <c r="I20">
+        <v>18398672</v>
+      </c>
+      <c r="J20">
+        <v>185804</v>
+      </c>
+      <c r="K20">
+        <v>1199</v>
+      </c>
+      <c r="L20" s="1">
+        <v>1.00845260437434E-40</v>
+      </c>
+      <c r="M20" s="1">
+        <v>5.0120094437404904E-38</v>
+      </c>
+      <c r="N20" s="1">
+        <v>1.06638498802989E-39</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>1</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20" t="s">
+        <v>21</v>
+      </c>
+      <c r="S20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21">
+        <v>1319</v>
+      </c>
+      <c r="C21">
+        <v>281</v>
+      </c>
+      <c r="D21">
+        <v>452</v>
+      </c>
+      <c r="E21">
+        <v>721</v>
+      </c>
+      <c r="F21" t="s">
+        <v>68</v>
+      </c>
+      <c r="G21">
+        <v>18478013</v>
+      </c>
+      <c r="H21">
+        <v>79341</v>
+      </c>
+      <c r="I21">
+        <v>18398672</v>
+      </c>
+      <c r="J21">
+        <v>119737</v>
+      </c>
+      <c r="K21">
+        <v>969</v>
+      </c>
+      <c r="L21" s="1">
+        <v>2.0533251212291799E-72</v>
+      </c>
+      <c r="M21" s="1">
+        <v>1.0205025852509E-69</v>
+      </c>
+      <c r="N21" s="1">
+        <v>2.6166732955151302E-71</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>1</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21" t="s">
+        <v>21</v>
+      </c>
+      <c r="S21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22">
+        <v>1445</v>
+      </c>
+      <c r="C22">
+        <v>299</v>
+      </c>
+      <c r="D22">
+        <v>487</v>
+      </c>
+      <c r="E22">
+        <v>780</v>
+      </c>
+      <c r="F22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G22">
+        <v>18478013</v>
+      </c>
+      <c r="H22">
+        <v>79341</v>
+      </c>
+      <c r="I22">
+        <v>18398672</v>
+      </c>
+      <c r="J22">
+        <v>223244</v>
+      </c>
+      <c r="K22">
+        <v>1359</v>
+      </c>
+      <c r="L22" s="1">
+        <v>6.95356454973409E-35</v>
+      </c>
+      <c r="M22" s="1">
+        <v>3.4559215812178399E-32</v>
+      </c>
+      <c r="N22" s="1">
+        <v>6.7763168259173404E-34</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>1</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22" t="s">
+        <v>21</v>
+      </c>
+      <c r="S22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>71</v>
+      </c>
+      <c r="B23">
+        <v>635</v>
+      </c>
+      <c r="C23">
+        <v>144</v>
+      </c>
+      <c r="D23">
+        <v>210</v>
+      </c>
+      <c r="E23">
+        <v>371</v>
+      </c>
+      <c r="F23" t="s">
+        <v>72</v>
+      </c>
+      <c r="G23">
+        <v>18478013</v>
+      </c>
+      <c r="H23">
+        <v>79341</v>
+      </c>
+      <c r="I23">
+        <v>18398672</v>
+      </c>
+      <c r="J23">
+        <v>38525</v>
+      </c>
+      <c r="K23">
+        <v>231</v>
+      </c>
+      <c r="L23">
+        <v>7.8345165217810101E-7</v>
+      </c>
+      <c r="M23">
+        <v>3.8937547113251599E-4</v>
+      </c>
+      <c r="N23">
+        <v>4.1868330229302802E-6</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>1</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23" t="s">
+        <v>73</v>
+      </c>
+      <c r="S23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>74</v>
+      </c>
+      <c r="B24">
+        <v>1672</v>
+      </c>
+      <c r="C24">
+        <v>334</v>
+      </c>
+      <c r="D24">
+        <v>528</v>
+      </c>
+      <c r="E24">
+        <v>878</v>
+      </c>
+      <c r="F24" t="s">
+        <v>75</v>
+      </c>
+      <c r="G24">
+        <v>18478013</v>
+      </c>
+      <c r="H24">
+        <v>79341</v>
+      </c>
+      <c r="I24">
+        <v>18398672</v>
+      </c>
+      <c r="J24">
+        <v>189427</v>
+      </c>
+      <c r="K24">
+        <v>3589</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>1</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24" t="s">
+        <v>21</v>
+      </c>
+      <c r="S24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>76</v>
+      </c>
+      <c r="B25">
+        <v>123</v>
+      </c>
+      <c r="C25">
+        <v>32</v>
+      </c>
+      <c r="D25">
+        <v>53</v>
+      </c>
+      <c r="E25">
+        <v>79</v>
+      </c>
+      <c r="F25" t="s">
+        <v>77</v>
+      </c>
+      <c r="G25">
+        <v>18478013</v>
+      </c>
+      <c r="H25">
+        <v>79341</v>
+      </c>
+      <c r="I25">
+        <v>18398672</v>
+      </c>
+      <c r="J25">
+        <v>65968</v>
+      </c>
+      <c r="K25">
+        <v>490</v>
+      </c>
+      <c r="L25" s="1">
+        <v>3.3616719374470803E-29</v>
+      </c>
+      <c r="M25" s="1">
+        <v>1.6707509529112E-26</v>
+      </c>
+      <c r="N25" s="1">
+        <v>2.9311420226512302E-28</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>1</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25" t="s">
+        <v>21</v>
+      </c>
+      <c r="S25" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>78</v>
+      </c>
+      <c r="B26">
+        <v>124</v>
+      </c>
+      <c r="C26">
+        <v>30</v>
+      </c>
+      <c r="D26">
+        <v>58</v>
+      </c>
+      <c r="E26">
+        <v>75</v>
+      </c>
+      <c r="F26" t="s">
+        <v>79</v>
+      </c>
+      <c r="G26">
+        <v>18478013</v>
+      </c>
+      <c r="H26">
+        <v>79341</v>
+      </c>
+      <c r="I26">
+        <v>18398672</v>
+      </c>
+      <c r="J26">
+        <v>7125</v>
+      </c>
+      <c r="K26">
+        <v>503</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>1</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26" t="s">
+        <v>21</v>
+      </c>
+      <c r="S26" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>80</v>
+      </c>
+      <c r="B27">
+        <v>138</v>
+      </c>
+      <c r="C27">
+        <v>35</v>
+      </c>
+      <c r="D27">
+        <v>60</v>
+      </c>
+      <c r="E27">
+        <v>82</v>
+      </c>
+      <c r="F27" t="s">
+        <v>81</v>
+      </c>
+      <c r="G27">
+        <v>18478013</v>
+      </c>
+      <c r="H27">
+        <v>79341</v>
+      </c>
+      <c r="I27">
+        <v>18398672</v>
+      </c>
+      <c r="J27">
+        <v>2024</v>
+      </c>
+      <c r="K27">
+        <v>37</v>
+      </c>
+      <c r="L27" s="1">
+        <v>7.1954094442369097E-13</v>
+      </c>
+      <c r="M27" s="1">
+        <v>3.5761184937857399E-10</v>
+      </c>
+      <c r="N27" s="1">
+        <v>4.8325925591699199E-12</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>1</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+      <c r="R27" t="s">
+        <v>82</v>
+      </c>
+      <c r="S27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>83</v>
+      </c>
+      <c r="B28">
+        <v>459</v>
+      </c>
+      <c r="C28">
+        <v>107</v>
+      </c>
+      <c r="D28">
+        <v>169</v>
+      </c>
+      <c r="E28">
+        <v>252</v>
+      </c>
+      <c r="F28" t="s">
+        <v>84</v>
+      </c>
+      <c r="G28">
+        <v>18478013</v>
+      </c>
+      <c r="H28">
+        <v>79341</v>
+      </c>
+      <c r="I28">
+        <v>18398672</v>
+      </c>
+      <c r="J28">
+        <v>5705</v>
+      </c>
+      <c r="K28">
+        <v>74</v>
+      </c>
+      <c r="L28" s="1">
+        <v>5.08149095631193E-16</v>
+      </c>
+      <c r="M28" s="1">
+        <v>2.5255010052870299E-13</v>
+      </c>
+      <c r="N28" s="1">
+        <v>3.6078585789814698E-15</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <v>1</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
+      <c r="R28" t="s">
+        <v>85</v>
+      </c>
+      <c r="S28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>86</v>
+      </c>
+      <c r="B29">
+        <v>474</v>
+      </c>
+      <c r="C29">
+        <v>110</v>
+      </c>
+      <c r="D29">
+        <v>174</v>
+      </c>
+      <c r="E29">
+        <v>263</v>
+      </c>
+      <c r="F29" t="s">
+        <v>87</v>
+      </c>
+      <c r="G29">
+        <v>18478013</v>
+      </c>
+      <c r="H29">
+        <v>79341</v>
+      </c>
+      <c r="I29">
+        <v>18398672</v>
+      </c>
+      <c r="J29">
+        <v>4393</v>
+      </c>
+      <c r="K29">
+        <v>64</v>
+      </c>
+      <c r="L29" s="1">
+        <v>2.4288426910980901E-16</v>
+      </c>
+      <c r="M29" s="1">
+        <v>1.20713481747575E-13</v>
+      </c>
+      <c r="N29" s="1">
+        <v>1.7494707499648601E-15</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>1</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="R29" t="s">
+        <v>88</v>
+      </c>
+      <c r="S29" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>89</v>
+      </c>
+      <c r="B30">
+        <v>4562</v>
+      </c>
+      <c r="C30">
+        <v>877</v>
+      </c>
+      <c r="D30">
+        <v>1195</v>
+      </c>
+      <c r="E30">
+        <v>2404</v>
+      </c>
+      <c r="F30" t="s">
+        <v>90</v>
+      </c>
+      <c r="G30">
+        <v>18478013</v>
+      </c>
+      <c r="H30">
+        <v>79341</v>
+      </c>
+      <c r="I30">
+        <v>18398672</v>
+      </c>
+      <c r="J30">
+        <v>36915</v>
+      </c>
+      <c r="K30">
+        <v>295</v>
+      </c>
+      <c r="L30" s="1">
+        <v>1.6975571508052101E-22</v>
+      </c>
+      <c r="M30" s="1">
+        <v>8.4368590395018704E-20</v>
+      </c>
+      <c r="N30" s="1">
+        <v>1.40614317325031E-21</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <v>1</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="R30" t="s">
+        <v>21</v>
+      </c>
+      <c r="S30" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>91</v>
+      </c>
+      <c r="B31">
+        <v>906</v>
+      </c>
+      <c r="C31">
+        <v>199</v>
+      </c>
+      <c r="D31">
+        <v>292</v>
+      </c>
+      <c r="E31">
+        <v>500</v>
+      </c>
+      <c r="F31" t="s">
+        <v>92</v>
+      </c>
+      <c r="G31">
+        <v>18478013</v>
+      </c>
+      <c r="H31">
+        <v>79341</v>
+      </c>
+      <c r="I31">
+        <v>18398672</v>
+      </c>
+      <c r="J31">
+        <v>74100</v>
+      </c>
+      <c r="K31">
+        <v>595</v>
+      </c>
+      <c r="L31" s="1">
+        <v>3.7768209262270202E-44</v>
+      </c>
+      <c r="M31" s="1">
+        <v>1.8770800003348299E-41</v>
+      </c>
+      <c r="N31" s="1">
+        <v>4.0806086963800599E-43</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <v>1</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+      <c r="R31" t="s">
+        <v>21</v>
+      </c>
+      <c r="S31" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>93</v>
+      </c>
+      <c r="B32">
+        <v>485</v>
+      </c>
+      <c r="C32">
+        <v>112</v>
+      </c>
+      <c r="D32">
+        <v>181</v>
+      </c>
+      <c r="E32">
+        <v>269</v>
+      </c>
+      <c r="F32" t="s">
+        <v>94</v>
+      </c>
+      <c r="G32">
+        <v>18478013</v>
+      </c>
+      <c r="H32">
+        <v>79341</v>
+      </c>
+      <c r="I32">
+        <v>18398672</v>
+      </c>
+      <c r="J32">
+        <v>3830</v>
+      </c>
+      <c r="K32">
+        <v>55</v>
+      </c>
+      <c r="L32" s="1">
+        <v>4.9956776240028698E-14</v>
+      </c>
+      <c r="M32" s="1">
+        <v>2.4828517791294299E-11</v>
+      </c>
+      <c r="N32" s="1">
+        <v>3.4011668207252401E-13</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <v>1</v>
+      </c>
+      <c r="Q32">
+        <v>0</v>
+      </c>
+      <c r="R32" t="s">
+        <v>95</v>
+      </c>
+      <c r="S32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>96</v>
+      </c>
+      <c r="B33">
+        <v>1234</v>
+      </c>
+      <c r="C33">
+        <v>268</v>
+      </c>
+      <c r="D33">
+        <v>384</v>
+      </c>
+      <c r="E33">
+        <v>684</v>
+      </c>
+      <c r="F33" t="s">
+        <v>97</v>
+      </c>
+      <c r="G33">
+        <v>18478013</v>
+      </c>
+      <c r="H33">
+        <v>79341</v>
+      </c>
+      <c r="I33">
+        <v>18398672</v>
+      </c>
+      <c r="J33">
+        <v>15001</v>
+      </c>
+      <c r="K33">
+        <v>105</v>
+      </c>
+      <c r="L33">
+        <v>2.0058866996791098E-6</v>
+      </c>
+      <c r="M33">
+        <v>9.9692568974051694E-4</v>
+      </c>
+      <c r="N33">
+        <v>1.03846426014637E-5</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <v>1</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
+      <c r="R33" t="s">
+        <v>98</v>
+      </c>
+      <c r="S33" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>99</v>
+      </c>
+      <c r="B34">
+        <v>1377</v>
+      </c>
+      <c r="C34">
+        <v>298</v>
+      </c>
+      <c r="D34">
+        <v>429</v>
+      </c>
+      <c r="E34">
+        <v>758</v>
+      </c>
+      <c r="F34" t="s">
+        <v>100</v>
+      </c>
+      <c r="G34">
+        <v>18478013</v>
+      </c>
+      <c r="H34">
+        <v>79341</v>
+      </c>
+      <c r="I34">
+        <v>18398672</v>
+      </c>
+      <c r="J34">
+        <v>22824</v>
+      </c>
+      <c r="K34">
+        <v>156</v>
+      </c>
+      <c r="L34" s="1">
+        <v>3.74728209718031E-8</v>
+      </c>
+      <c r="M34">
+        <v>1.8623992022986199E-5</v>
+      </c>
+      <c r="N34">
+        <v>2.1655804677890901E-7</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <v>1</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
+      <c r="R34" t="s">
+        <v>101</v>
+      </c>
+      <c r="S34" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>102</v>
+      </c>
+      <c r="B35">
+        <v>1307</v>
+      </c>
+      <c r="C35">
+        <v>285</v>
+      </c>
+      <c r="D35">
+        <v>372</v>
+      </c>
+      <c r="E35">
+        <v>703</v>
+      </c>
+      <c r="F35" t="s">
+        <v>103</v>
+      </c>
+      <c r="G35">
+        <v>18478013</v>
+      </c>
+      <c r="H35">
+        <v>79341</v>
+      </c>
+      <c r="I35">
+        <v>18398672</v>
+      </c>
+      <c r="J35">
+        <v>238438</v>
+      </c>
+      <c r="K35">
+        <v>1417</v>
+      </c>
+      <c r="L35" s="1">
+        <v>5.6705810102177703E-32</v>
+      </c>
+      <c r="M35" s="1">
+        <v>2.8182787620782298E-29</v>
+      </c>
+      <c r="N35" s="1">
+        <v>5.4197668501504403E-31</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <v>1</v>
+      </c>
+      <c r="Q35">
+        <v>0</v>
+      </c>
+      <c r="R35" t="s">
+        <v>21</v>
+      </c>
+      <c r="S35" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>104</v>
+      </c>
+      <c r="B36">
+        <v>241</v>
+      </c>
+      <c r="C36">
+        <v>60</v>
+      </c>
+      <c r="D36">
+        <v>99</v>
+      </c>
+      <c r="E36">
+        <v>139</v>
+      </c>
+      <c r="F36" t="s">
+        <v>105</v>
+      </c>
+      <c r="G36">
+        <v>18478013</v>
+      </c>
+      <c r="H36">
+        <v>79341</v>
+      </c>
+      <c r="I36">
+        <v>18398672</v>
+      </c>
+      <c r="J36">
+        <v>24275</v>
+      </c>
+      <c r="K36">
+        <v>468</v>
+      </c>
+      <c r="L36" s="1">
+        <v>3.5512415983095297E-151</v>
+      </c>
+      <c r="M36" s="1">
+        <v>1.7649670743598399E-148</v>
+      </c>
+      <c r="N36" s="1">
+        <v>6.0860933598615098E-150</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <v>1</v>
+      </c>
+      <c r="Q36">
+        <v>0</v>
+      </c>
+      <c r="R36" t="s">
+        <v>21</v>
+      </c>
+      <c r="S36" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>106</v>
+      </c>
+      <c r="B37">
+        <v>1204</v>
+      </c>
+      <c r="C37">
+        <v>248</v>
+      </c>
+      <c r="D37">
+        <v>379</v>
+      </c>
+      <c r="E37">
+        <v>648</v>
+      </c>
+      <c r="F37" t="s">
+        <v>107</v>
+      </c>
+      <c r="G37">
+        <v>18478013</v>
+      </c>
+      <c r="H37">
+        <v>79341</v>
+      </c>
+      <c r="I37">
+        <v>18398672</v>
+      </c>
+      <c r="J37">
+        <v>117139</v>
+      </c>
+      <c r="K37">
+        <v>627</v>
+      </c>
+      <c r="L37" s="1">
+        <v>4.6341452322675298E-8</v>
+      </c>
+      <c r="M37">
+        <v>2.30317018043696E-5</v>
+      </c>
+      <c r="N37">
+        <v>2.5878316634123198E-7</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <v>1</v>
+      </c>
+      <c r="Q37">
+        <v>0</v>
+      </c>
+      <c r="R37" t="s">
+        <v>108</v>
+      </c>
+      <c r="S37" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>109</v>
+      </c>
+      <c r="B38">
+        <v>770</v>
+      </c>
+      <c r="C38">
+        <v>168</v>
+      </c>
+      <c r="D38">
+        <v>271</v>
+      </c>
+      <c r="E38">
+        <v>416</v>
+      </c>
+      <c r="F38" t="s">
+        <v>110</v>
+      </c>
+      <c r="G38">
+        <v>18478013</v>
+      </c>
+      <c r="H38">
+        <v>79341</v>
+      </c>
+      <c r="I38">
+        <v>18398672</v>
+      </c>
+      <c r="J38">
+        <v>73032</v>
+      </c>
+      <c r="K38">
+        <v>1116</v>
+      </c>
+      <c r="L38" s="1">
+        <v>5.4228346495299097E-273</v>
+      </c>
+      <c r="M38" s="1">
+        <v>2.6951488208163702E-270</v>
+      </c>
+      <c r="N38" s="1">
+        <v>1.2834042003887499E-271</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <v>1</v>
+      </c>
+      <c r="Q38">
+        <v>0</v>
+      </c>
+      <c r="R38" t="s">
+        <v>21</v>
+      </c>
+      <c r="S38" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>111</v>
+      </c>
+      <c r="B39">
+        <v>809</v>
+      </c>
+      <c r="C39">
+        <v>176</v>
+      </c>
+      <c r="D39">
+        <v>281</v>
+      </c>
+      <c r="E39">
+        <v>441</v>
+      </c>
+      <c r="F39" t="s">
+        <v>112</v>
+      </c>
+      <c r="G39">
+        <v>18478013</v>
+      </c>
+      <c r="H39">
+        <v>79341</v>
+      </c>
+      <c r="I39">
+        <v>18398672</v>
+      </c>
+      <c r="J39">
+        <v>57553</v>
+      </c>
+      <c r="K39">
+        <v>868</v>
+      </c>
+      <c r="L39" s="1">
+        <v>6.3509118098525104E-209</v>
+      </c>
+      <c r="M39" s="1">
+        <v>3.1564031694967E-206</v>
+      </c>
+      <c r="N39" s="1">
+        <v>1.3723492041290001E-207</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39">
+        <v>1</v>
+      </c>
+      <c r="Q39">
+        <v>0</v>
+      </c>
+      <c r="R39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S39" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>113</v>
+      </c>
+      <c r="B40">
+        <v>114</v>
+      </c>
+      <c r="C40">
+        <v>30</v>
+      </c>
+      <c r="D40">
+        <v>53</v>
+      </c>
+      <c r="E40">
+        <v>68</v>
+      </c>
+      <c r="F40" t="s">
+        <v>114</v>
+      </c>
+      <c r="G40">
+        <v>18478013</v>
+      </c>
+      <c r="H40">
+        <v>79341</v>
+      </c>
+      <c r="I40">
+        <v>18398672</v>
+      </c>
+      <c r="J40">
+        <v>10581</v>
+      </c>
+      <c r="K40">
+        <v>188</v>
+      </c>
+      <c r="L40" s="1">
+        <v>1.1701795506747401E-56</v>
+      </c>
+      <c r="M40" s="1">
+        <v>5.8157923668534504E-54</v>
+      </c>
+      <c r="N40" s="1">
+        <v>1.38471246829844E-55</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40">
+        <v>1</v>
+      </c>
+      <c r="Q40">
+        <v>0</v>
+      </c>
+      <c r="R40" t="s">
+        <v>21</v>
+      </c>
+      <c r="S40" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>115</v>
+      </c>
+      <c r="B41">
+        <v>281</v>
+      </c>
+      <c r="C41">
+        <v>64</v>
+      </c>
+      <c r="D41">
+        <v>104</v>
+      </c>
+      <c r="E41">
+        <v>161</v>
+      </c>
+      <c r="F41" t="s">
+        <v>116</v>
+      </c>
+      <c r="G41">
+        <v>18478013</v>
+      </c>
+      <c r="H41">
+        <v>79341</v>
+      </c>
+      <c r="I41">
+        <v>18398672</v>
+      </c>
+      <c r="J41">
+        <v>37466</v>
+      </c>
+      <c r="K41">
+        <v>591</v>
+      </c>
+      <c r="L41" s="1">
+        <v>3.8645005476606199E-151</v>
+      </c>
+      <c r="M41" s="1">
+        <v>1.9206567721873302E-148</v>
+      </c>
+      <c r="N41" s="1">
+        <v>6.4021892406244202E-150</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41">
+        <v>1</v>
+      </c>
+      <c r="Q41">
+        <v>0</v>
+      </c>
+      <c r="R41" t="s">
+        <v>21</v>
+      </c>
+      <c r="S41" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>117</v>
+      </c>
+      <c r="B42">
+        <v>836</v>
+      </c>
+      <c r="C42">
+        <v>180</v>
+      </c>
+      <c r="D42">
+        <v>291</v>
+      </c>
+      <c r="E42">
+        <v>454</v>
+      </c>
+      <c r="F42" t="s">
+        <v>118</v>
+      </c>
+      <c r="G42">
+        <v>18478013</v>
+      </c>
+      <c r="H42">
+        <v>79341</v>
+      </c>
+      <c r="I42">
+        <v>18398672</v>
+      </c>
+      <c r="J42">
+        <v>50634</v>
+      </c>
+      <c r="K42">
+        <v>786</v>
+      </c>
+      <c r="L42" s="1">
+        <v>1.7501978055012799E-196</v>
+      </c>
+      <c r="M42" s="1">
+        <v>8.6984830933413701E-194</v>
+      </c>
+      <c r="N42" s="1">
+        <v>3.6243679555588997E-195</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42">
+        <v>1</v>
+      </c>
+      <c r="Q42">
+        <v>0</v>
+      </c>
+      <c r="R42" t="s">
+        <v>21</v>
+      </c>
+      <c r="S42" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>119</v>
+      </c>
+      <c r="B43">
+        <v>317</v>
+      </c>
+      <c r="C43">
+        <v>80</v>
+      </c>
+      <c r="D43">
+        <v>121</v>
+      </c>
+      <c r="E43">
+        <v>174</v>
+      </c>
+      <c r="F43" t="s">
+        <v>120</v>
+      </c>
+      <c r="G43">
+        <v>18478013</v>
+      </c>
+      <c r="H43">
+        <v>79341</v>
+      </c>
+      <c r="I43">
+        <v>18398672</v>
+      </c>
+      <c r="J43">
+        <v>33422</v>
+      </c>
+      <c r="K43">
+        <v>232</v>
+      </c>
+      <c r="L43" s="1">
+        <v>6.1576720921016101E-12</v>
+      </c>
+      <c r="M43" s="1">
+        <v>3.0603630297744998E-9</v>
+      </c>
+      <c r="N43" s="1">
+        <v>3.9744974412655901E-11</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43">
+        <v>1</v>
+      </c>
+      <c r="Q43">
+        <v>0</v>
+      </c>
+      <c r="R43" t="s">
+        <v>121</v>
+      </c>
+      <c r="S43" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>122</v>
+      </c>
+      <c r="B44">
+        <v>1036</v>
+      </c>
+      <c r="C44">
+        <v>229</v>
+      </c>
+      <c r="D44">
+        <v>306</v>
+      </c>
+      <c r="E44">
+        <v>557</v>
+      </c>
+      <c r="F44" t="s">
+        <v>123</v>
+      </c>
+      <c r="G44">
+        <v>18478013</v>
+      </c>
+      <c r="H44">
+        <v>79341</v>
+      </c>
+      <c r="I44">
+        <v>18398672</v>
+      </c>
+      <c r="J44">
+        <v>90712</v>
+      </c>
+      <c r="K44">
+        <v>614</v>
+      </c>
+      <c r="L44" s="1">
+        <v>3.2678758946437802E-26</v>
+      </c>
+      <c r="M44" s="1">
+        <v>1.6241343196379601E-23</v>
+      </c>
+      <c r="N44" s="1">
+        <v>2.7527700332846702E-25</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44">
+        <v>1</v>
+      </c>
+      <c r="Q44">
+        <v>0</v>
+      </c>
+      <c r="R44" t="s">
+        <v>21</v>
+      </c>
+      <c r="S44" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>124</v>
+      </c>
+      <c r="B45">
+        <v>907</v>
+      </c>
+      <c r="C45">
+        <v>207</v>
+      </c>
+      <c r="D45">
+        <v>280</v>
+      </c>
+      <c r="E45">
+        <v>494</v>
+      </c>
+      <c r="F45" t="s">
+        <v>125</v>
+      </c>
+      <c r="G45">
+        <v>18478013</v>
+      </c>
+      <c r="H45">
+        <v>79341</v>
+      </c>
+      <c r="I45">
+        <v>18398672</v>
+      </c>
+      <c r="J45">
+        <v>88302</v>
+      </c>
+      <c r="K45">
+        <v>604</v>
+      </c>
+      <c r="L45" s="1">
+        <v>7.5494684541499705E-27</v>
+      </c>
+      <c r="M45" s="1">
+        <v>3.7520858217125299E-24</v>
+      </c>
+      <c r="N45" s="1">
+        <v>6.4691134857112602E-26</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45">
+        <v>1</v>
+      </c>
+      <c r="Q45">
+        <v>0</v>
+      </c>
+      <c r="R45" t="s">
+        <v>21</v>
+      </c>
+      <c r="S45" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>126</v>
+      </c>
+      <c r="B46">
+        <v>476</v>
+      </c>
+      <c r="C46">
+        <v>107</v>
+      </c>
+      <c r="D46">
+        <v>168</v>
+      </c>
+      <c r="E46">
+        <v>276</v>
+      </c>
+      <c r="F46" t="s">
+        <v>127</v>
+      </c>
+      <c r="G46">
+        <v>18478013</v>
+      </c>
+      <c r="H46">
+        <v>79341</v>
+      </c>
+      <c r="I46">
+        <v>18398672</v>
+      </c>
+      <c r="J46">
+        <v>947001</v>
+      </c>
+      <c r="K46">
+        <v>6468</v>
+      </c>
+      <c r="L46" s="1">
+        <v>1.47846129200115E-281</v>
+      </c>
+      <c r="M46" s="1">
+        <v>7.3479526212457304E-279</v>
+      </c>
+      <c r="N46" s="1">
+        <v>3.67397631062286E-280</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46">
+        <v>1</v>
+      </c>
+      <c r="Q46">
+        <v>0</v>
+      </c>
+      <c r="R46" t="s">
+        <v>21</v>
+      </c>
+      <c r="S46" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>128</v>
+      </c>
+      <c r="B47">
+        <v>433</v>
+      </c>
+      <c r="C47">
+        <v>93</v>
+      </c>
+      <c r="D47">
+        <v>147</v>
+      </c>
+      <c r="E47">
+        <v>247</v>
+      </c>
+      <c r="F47" t="s">
+        <v>129</v>
+      </c>
+      <c r="G47">
+        <v>18478013</v>
+      </c>
+      <c r="H47">
+        <v>79341</v>
+      </c>
+      <c r="I47">
+        <v>18398672</v>
+      </c>
+      <c r="J47">
+        <v>715637</v>
+      </c>
+      <c r="K47">
+        <v>5988</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>0</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47">
+        <v>1</v>
+      </c>
+      <c r="Q47">
+        <v>0</v>
+      </c>
+      <c r="R47" t="s">
+        <v>21</v>
+      </c>
+      <c r="S47" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>130</v>
+      </c>
+      <c r="B48">
+        <v>244</v>
+      </c>
+      <c r="C48">
+        <v>61</v>
+      </c>
+      <c r="D48">
+        <v>100</v>
+      </c>
+      <c r="E48">
+        <v>141</v>
+      </c>
+      <c r="F48" t="s">
+        <v>131</v>
+      </c>
+      <c r="G48">
+        <v>18478013</v>
+      </c>
+      <c r="H48">
+        <v>79341</v>
+      </c>
+      <c r="I48">
+        <v>18398672</v>
+      </c>
+      <c r="J48">
+        <v>4615</v>
+      </c>
+      <c r="K48">
+        <v>56</v>
+      </c>
+      <c r="L48" s="1">
+        <v>1.96668958373153E-11</v>
+      </c>
+      <c r="M48" s="1">
+        <v>9.7744472311457198E-9</v>
+      </c>
+      <c r="N48" s="1">
+        <v>1.2372718014108501E-10</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48">
+        <v>1</v>
+      </c>
+      <c r="Q48">
+        <v>0</v>
+      </c>
+      <c r="R48" t="s">
+        <v>132</v>
+      </c>
+      <c r="S48" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>133</v>
+      </c>
+      <c r="B49">
+        <v>268</v>
+      </c>
+      <c r="C49">
+        <v>56</v>
+      </c>
+      <c r="D49">
+        <v>103</v>
+      </c>
+      <c r="E49">
+        <v>151</v>
+      </c>
+      <c r="F49" t="s">
+        <v>134</v>
+      </c>
+      <c r="G49">
+        <v>18478013</v>
+      </c>
+      <c r="H49">
+        <v>79341</v>
+      </c>
+      <c r="I49">
+        <v>18398672</v>
+      </c>
+      <c r="J49">
+        <v>8132</v>
+      </c>
+      <c r="K49">
+        <v>697</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>0</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+      <c r="P49">
+        <v>1</v>
+      </c>
+      <c r="Q49">
+        <v>0</v>
+      </c>
+      <c r="R49" t="s">
+        <v>21</v>
+      </c>
+      <c r="S49" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>135</v>
+      </c>
+      <c r="B50">
+        <v>66</v>
+      </c>
+      <c r="C50">
+        <v>18</v>
+      </c>
+      <c r="D50">
+        <v>33</v>
+      </c>
+      <c r="E50">
+        <v>42</v>
+      </c>
+      <c r="F50" t="s">
+        <v>136</v>
+      </c>
+      <c r="G50">
+        <v>18478013</v>
+      </c>
+      <c r="H50">
+        <v>79341</v>
+      </c>
+      <c r="I50">
+        <v>18398672</v>
+      </c>
+      <c r="J50">
+        <v>715</v>
+      </c>
+      <c r="K50">
+        <v>60</v>
+      </c>
+      <c r="L50" s="1">
+        <v>9.77795207354957E-56</v>
+      </c>
+      <c r="M50" s="1">
+        <v>4.8596421805541398E-53</v>
+      </c>
+      <c r="N50" s="1">
+        <v>1.13014934431492E-54</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+      <c r="P50">
+        <v>1</v>
+      </c>
+      <c r="Q50">
+        <v>0</v>
+      </c>
+      <c r="R50" t="s">
+        <v>21</v>
+      </c>
+      <c r="S50" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>137</v>
+      </c>
+      <c r="B51">
+        <v>729</v>
+      </c>
+      <c r="C51">
+        <v>166</v>
+      </c>
+      <c r="D51">
+        <v>252</v>
+      </c>
+      <c r="E51">
+        <v>422</v>
+      </c>
+      <c r="F51" t="s">
+        <v>138</v>
+      </c>
+      <c r="G51">
+        <v>18478013</v>
+      </c>
+      <c r="H51">
+        <v>79341</v>
+      </c>
+      <c r="I51">
+        <v>18398672</v>
+      </c>
+      <c r="J51">
+        <v>5171190</v>
+      </c>
+      <c r="K51">
+        <v>27361</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>0</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+      <c r="P51">
+        <v>1</v>
+      </c>
+      <c r="Q51">
+        <v>0</v>
+      </c>
+      <c r="R51" t="s">
+        <v>21</v>
+      </c>
+      <c r="S51" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>139</v>
+      </c>
+      <c r="B52">
+        <v>626</v>
+      </c>
+      <c r="C52">
+        <v>137</v>
+      </c>
+      <c r="D52">
+        <v>207</v>
+      </c>
+      <c r="E52">
+        <v>352</v>
+      </c>
+      <c r="F52" t="s">
+        <v>140</v>
+      </c>
+      <c r="G52">
+        <v>18478013</v>
+      </c>
+      <c r="H52">
+        <v>79341</v>
+      </c>
+      <c r="I52">
+        <v>18398672</v>
+      </c>
+      <c r="J52">
+        <v>2736398</v>
+      </c>
+      <c r="K52">
+        <v>21606</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>0</v>
+      </c>
+      <c r="O52">
+        <v>0</v>
+      </c>
+      <c r="P52">
+        <v>1</v>
+      </c>
+      <c r="Q52">
+        <v>0</v>
+      </c>
+      <c r="R52" t="s">
+        <v>21</v>
+      </c>
+      <c r="S52" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>141</v>
+      </c>
+      <c r="B53">
+        <v>1438</v>
+      </c>
+      <c r="C53">
+        <v>255</v>
+      </c>
+      <c r="D53">
+        <v>444</v>
+      </c>
+      <c r="E53">
+        <v>751</v>
+      </c>
+      <c r="F53" t="s">
+        <v>142</v>
+      </c>
+      <c r="G53">
+        <v>18478013</v>
+      </c>
+      <c r="H53">
+        <v>79341</v>
+      </c>
+      <c r="I53">
+        <v>18398672</v>
+      </c>
+      <c r="J53">
+        <v>382104</v>
+      </c>
+      <c r="K53">
+        <v>2898</v>
+      </c>
+      <c r="L53" s="1">
+        <v>7.7972958600638297E-178</v>
+      </c>
+      <c r="M53" s="1">
+        <v>3.8752560424517201E-175</v>
+      </c>
+      <c r="N53" s="1">
+        <v>1.55010241698069E-176</v>
+      </c>
+      <c r="O53">
+        <v>0</v>
+      </c>
+      <c r="P53">
+        <v>1</v>
+      </c>
+      <c r="Q53">
+        <v>0</v>
+      </c>
+      <c r="R53" t="s">
+        <v>21</v>
+      </c>
+      <c r="S53" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>143</v>
+      </c>
+      <c r="B54">
+        <v>521</v>
+      </c>
+      <c r="C54">
+        <v>124</v>
+      </c>
+      <c r="D54">
+        <v>180</v>
+      </c>
+      <c r="E54">
+        <v>288</v>
+      </c>
+      <c r="F54" t="s">
+        <v>144</v>
+      </c>
+      <c r="G54">
+        <v>18478013</v>
+      </c>
+      <c r="H54">
+        <v>79341</v>
+      </c>
+      <c r="I54">
+        <v>18398672</v>
+      </c>
+      <c r="J54">
+        <v>39064</v>
+      </c>
+      <c r="K54">
+        <v>395</v>
+      </c>
+      <c r="L54" s="1">
+        <v>7.5822106963146797E-51</v>
+      </c>
+      <c r="M54" s="1">
+        <v>3.7683587160683897E-48</v>
+      </c>
+      <c r="N54" s="1">
+        <v>8.3741304801519899E-50</v>
+      </c>
+      <c r="O54">
+        <v>0</v>
+      </c>
+      <c r="P54">
+        <v>1</v>
+      </c>
+      <c r="Q54">
+        <v>0</v>
+      </c>
+      <c r="R54" t="s">
+        <v>21</v>
+      </c>
+      <c r="S54" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>145</v>
+      </c>
+      <c r="B55">
+        <v>295</v>
+      </c>
+      <c r="C55">
+        <v>60</v>
+      </c>
+      <c r="D55">
+        <v>109</v>
+      </c>
+      <c r="E55">
+        <v>163</v>
+      </c>
+      <c r="F55" t="s">
+        <v>146</v>
+      </c>
+      <c r="G55">
+        <v>18478013</v>
+      </c>
+      <c r="H55">
+        <v>79341</v>
+      </c>
+      <c r="I55">
+        <v>18398672</v>
+      </c>
+      <c r="J55">
+        <v>82702</v>
+      </c>
+      <c r="K55">
+        <v>1926</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>0</v>
+      </c>
+      <c r="O55">
+        <v>0</v>
+      </c>
+      <c r="P55">
+        <v>1</v>
+      </c>
+      <c r="Q55">
+        <v>0</v>
+      </c>
+      <c r="R55" t="s">
+        <v>21</v>
+      </c>
+      <c r="S55" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>147</v>
+      </c>
+      <c r="B56">
+        <v>621</v>
+      </c>
+      <c r="C56">
+        <v>125</v>
+      </c>
+      <c r="D56">
+        <v>212</v>
+      </c>
+      <c r="E56">
+        <v>335</v>
+      </c>
+      <c r="F56" t="s">
+        <v>148</v>
+      </c>
+      <c r="G56">
+        <v>18478013</v>
+      </c>
+      <c r="H56">
+        <v>79341</v>
+      </c>
+      <c r="I56">
+        <v>18398672</v>
+      </c>
+      <c r="J56">
+        <v>27829</v>
+      </c>
+      <c r="K56">
+        <v>284</v>
+      </c>
+      <c r="L56" s="1">
+        <v>9.7669330772618992E-38</v>
+      </c>
+      <c r="M56" s="1">
+        <v>4.8541657393991696E-35</v>
+      </c>
+      <c r="N56" s="1">
+        <v>9.7083314787983296E-37</v>
+      </c>
+      <c r="O56">
+        <v>0</v>
+      </c>
+      <c r="P56">
+        <v>1</v>
+      </c>
+      <c r="Q56">
+        <v>0</v>
+      </c>
+      <c r="R56" t="s">
+        <v>21</v>
+      </c>
+      <c r="S56" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>149</v>
+      </c>
+      <c r="B57">
+        <v>1168</v>
+      </c>
+      <c r="C57">
+        <v>252</v>
+      </c>
+      <c r="D57">
+        <v>322</v>
+      </c>
+      <c r="E57">
+        <v>661</v>
+      </c>
+      <c r="F57" t="s">
+        <v>150</v>
+      </c>
+      <c r="G57">
+        <v>18478013</v>
+      </c>
+      <c r="H57">
+        <v>79341</v>
+      </c>
+      <c r="I57">
+        <v>18398672</v>
+      </c>
+      <c r="J57">
+        <v>130128</v>
+      </c>
+      <c r="K57">
+        <v>1592</v>
+      </c>
+      <c r="L57" s="1">
+        <v>1.71580558806974E-282</v>
+      </c>
+      <c r="M57" s="1">
+        <v>8.5275537727066297E-280</v>
+      </c>
+      <c r="N57" s="1">
+        <v>4.48818619616138E-281</v>
+      </c>
+      <c r="O57">
+        <v>0</v>
+      </c>
+      <c r="P57">
+        <v>0</v>
+      </c>
+      <c r="Q57">
+        <v>1</v>
+      </c>
+      <c r="R57" t="s">
+        <v>21</v>
+      </c>
+      <c r="S57" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>152</v>
+      </c>
+      <c r="B58">
+        <v>1193</v>
+      </c>
+      <c r="C58">
+        <v>261</v>
+      </c>
+      <c r="D58">
+        <v>332</v>
+      </c>
+      <c r="E58">
+        <v>675</v>
+      </c>
+      <c r="F58" t="s">
+        <v>153</v>
+      </c>
+      <c r="G58">
+        <v>18478013</v>
+      </c>
+      <c r="H58">
+        <v>79341</v>
+      </c>
+      <c r="I58">
+        <v>18398672</v>
+      </c>
+      <c r="J58">
+        <v>133177</v>
+      </c>
+      <c r="K58">
+        <v>1654</v>
+      </c>
+      <c r="L58" s="1">
+        <v>1.10957188234521E-300</v>
+      </c>
+      <c r="M58" s="1">
+        <v>5.5145722552556797E-298</v>
+      </c>
+      <c r="N58" s="1">
+        <v>3.0636512529198199E-299</v>
+      </c>
+      <c r="O58">
+        <v>0</v>
+      </c>
+      <c r="P58">
+        <v>0</v>
+      </c>
+      <c r="Q58">
+        <v>1</v>
+      </c>
+      <c r="R58" t="s">
+        <v>21</v>
+      </c>
+      <c r="S58" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>154</v>
+      </c>
+      <c r="B59">
+        <v>96</v>
+      </c>
+      <c r="C59">
+        <v>40</v>
+      </c>
+      <c r="D59">
+        <v>51</v>
+      </c>
+      <c r="E59">
+        <v>66</v>
+      </c>
+      <c r="F59" t="s">
+        <v>155</v>
+      </c>
+      <c r="G59">
+        <v>18478013</v>
+      </c>
+      <c r="H59">
+        <v>79341</v>
+      </c>
+      <c r="I59">
+        <v>18398672</v>
+      </c>
+      <c r="J59">
+        <v>26159</v>
+      </c>
+      <c r="K59">
+        <v>192</v>
+      </c>
+      <c r="L59" s="1">
+        <v>4.5921616469750096E-12</v>
+      </c>
+      <c r="M59" s="1">
+        <v>2.2823043385465801E-9</v>
+      </c>
+      <c r="N59" s="1">
+        <v>3.0030320244034E-11</v>
+      </c>
+      <c r="O59">
+        <v>1</v>
+      </c>
+      <c r="P59">
+        <v>1</v>
+      </c>
+      <c r="Q59">
+        <v>0</v>
+      </c>
+      <c r="R59" t="s">
+        <v>156</v>
+      </c>
+      <c r="S59" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>158</v>
+      </c>
+      <c r="B60">
+        <v>9238</v>
+      </c>
+      <c r="C60">
+        <v>1709</v>
+      </c>
+      <c r="D60">
+        <v>2327</v>
+      </c>
+      <c r="E60">
+        <v>4729</v>
+      </c>
+      <c r="F60" t="s">
+        <v>159</v>
+      </c>
+      <c r="G60">
+        <v>18478013</v>
+      </c>
+      <c r="H60">
+        <v>79341</v>
+      </c>
+      <c r="I60">
+        <v>18398672</v>
+      </c>
+      <c r="J60">
+        <v>434808</v>
+      </c>
+      <c r="K60">
+        <v>2769</v>
+      </c>
+      <c r="L60" s="1">
+        <v>2.4615111327051E-87</v>
+      </c>
+      <c r="M60" s="1">
+        <v>1.22337103295443E-84</v>
+      </c>
+      <c r="N60" s="1">
+        <v>3.3064081971741501E-86</v>
+      </c>
+      <c r="O60">
+        <v>1</v>
+      </c>
+      <c r="P60">
+        <v>1</v>
+      </c>
+      <c r="Q60">
+        <v>0</v>
+      </c>
+      <c r="R60" t="s">
+        <v>21</v>
+      </c>
+      <c r="S60" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>160</v>
+      </c>
+      <c r="B61">
+        <v>882</v>
+      </c>
+      <c r="C61">
+        <v>212</v>
+      </c>
+      <c r="D61">
+        <v>311</v>
+      </c>
+      <c r="E61">
+        <v>496</v>
+      </c>
+      <c r="F61" t="s">
+        <v>161</v>
+      </c>
+      <c r="G61">
+        <v>18478013</v>
+      </c>
+      <c r="H61">
+        <v>79341</v>
+      </c>
+      <c r="I61">
+        <v>18398672</v>
+      </c>
+      <c r="J61">
+        <v>25448</v>
+      </c>
+      <c r="K61">
+        <v>213</v>
+      </c>
+      <c r="L61" s="1">
+        <v>8.4621643685486705E-19</v>
+      </c>
+      <c r="M61" s="1">
+        <v>4.2056956911686901E-16</v>
+      </c>
+      <c r="N61" s="1">
+        <v>6.6757074462995103E-18</v>
+      </c>
+      <c r="O61">
+        <v>1</v>
+      </c>
+      <c r="P61">
+        <v>1</v>
+      </c>
+      <c r="Q61">
+        <v>0</v>
+      </c>
+      <c r="R61" t="s">
+        <v>162</v>
+      </c>
+      <c r="S61" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>163</v>
+      </c>
+      <c r="B62">
+        <v>1201</v>
+      </c>
+      <c r="C62">
+        <v>268</v>
+      </c>
+      <c r="D62">
+        <v>429</v>
+      </c>
+      <c r="E62">
+        <v>668</v>
+      </c>
+      <c r="F62" t="s">
+        <v>164</v>
+      </c>
+      <c r="G62">
+        <v>18478013</v>
+      </c>
+      <c r="H62">
+        <v>79341</v>
+      </c>
+      <c r="I62">
+        <v>18398672</v>
+      </c>
+      <c r="J62">
+        <v>230250</v>
+      </c>
+      <c r="K62">
+        <v>2273</v>
+      </c>
+      <c r="L62" s="1">
+        <v>9.0421361592031099E-273</v>
+      </c>
+      <c r="M62" s="1">
+        <v>4.4939416711239504E-270</v>
+      </c>
+      <c r="N62" s="1">
+        <v>2.0427007596017901E-271</v>
+      </c>
+      <c r="O62">
+        <v>1</v>
+      </c>
+      <c r="P62">
+        <v>1</v>
+      </c>
+      <c r="Q62">
+        <v>0</v>
+      </c>
+      <c r="R62" t="s">
+        <v>21</v>
+      </c>
+      <c r="S62" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>165</v>
+      </c>
+      <c r="B63">
+        <v>724</v>
+      </c>
+      <c r="C63">
+        <v>178</v>
+      </c>
+      <c r="D63">
+        <v>237</v>
+      </c>
+      <c r="E63">
+        <v>402</v>
+      </c>
+      <c r="F63" t="s">
+        <v>166</v>
+      </c>
+      <c r="G63">
+        <v>18478013</v>
+      </c>
+      <c r="H63">
+        <v>79341</v>
+      </c>
+      <c r="I63">
+        <v>18398672</v>
+      </c>
+      <c r="J63">
+        <v>125248</v>
+      </c>
+      <c r="K63">
+        <v>671</v>
+      </c>
+      <c r="L63" s="1">
+        <v>1.44056855205342E-8</v>
+      </c>
+      <c r="M63">
+        <v>7.1596257037054901E-6</v>
+      </c>
+      <c r="N63" s="1">
+        <v>8.6260550647054003E-8</v>
+      </c>
+      <c r="O63">
+        <v>1</v>
+      </c>
+      <c r="P63">
+        <v>1</v>
+      </c>
+      <c r="Q63">
+        <v>0</v>
+      </c>
+      <c r="R63" t="s">
+        <v>167</v>
+      </c>
+      <c r="S63" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>168</v>
+      </c>
+      <c r="B64">
+        <v>527</v>
+      </c>
+      <c r="C64">
+        <v>140</v>
+      </c>
+      <c r="D64">
+        <v>237</v>
+      </c>
+      <c r="E64">
+        <v>310</v>
+      </c>
+      <c r="F64" t="s">
+        <v>169</v>
+      </c>
+      <c r="G64">
+        <v>18478013</v>
+      </c>
+      <c r="H64">
+        <v>79341</v>
+      </c>
+      <c r="I64">
+        <v>18398672</v>
+      </c>
+      <c r="J64">
+        <v>54442</v>
+      </c>
+      <c r="K64">
+        <v>294</v>
+      </c>
+      <c r="L64">
+        <v>7.7983302458925895E-5</v>
+      </c>
+      <c r="M64">
+        <v>3.8757701322086197E-2</v>
+      </c>
+      <c r="N64">
+        <v>3.72670205020059E-4</v>
+      </c>
+      <c r="O64">
+        <v>1</v>
+      </c>
+      <c r="P64">
+        <v>1</v>
+      </c>
+      <c r="Q64">
+        <v>0</v>
+      </c>
+      <c r="R64" t="s">
+        <v>170</v>
+      </c>
+      <c r="S64" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>171</v>
+      </c>
+      <c r="B65">
+        <v>53</v>
+      </c>
+      <c r="C65">
         <v>28</v>
       </c>
-      <c r="L15">
-        <v>5.2080813282591203E-6</v>
-      </c>
-      <c r="M15">
-        <v>2.5884164201447801E-3</v>
-      </c>
-      <c r="N15">
-        <v>1.9910895539575299E-4</v>
-      </c>
-      <c r="O15">
-        <v>1</v>
-      </c>
-      <c r="P15">
-        <v>1</v>
-      </c>
-      <c r="Q15">
-        <v>1</v>
-      </c>
-      <c r="R15" t="s">
-        <v>58</v>
-      </c>
-      <c r="S15" t="s">
+      <c r="D65">
+        <v>28</v>
+      </c>
+      <c r="E65">
+        <v>41</v>
+      </c>
+      <c r="F65" t="s">
+        <v>172</v>
+      </c>
+      <c r="G65">
+        <v>18478013</v>
+      </c>
+      <c r="H65">
+        <v>79341</v>
+      </c>
+      <c r="I65">
+        <v>18398672</v>
+      </c>
+      <c r="J65">
+        <v>3724</v>
+      </c>
+      <c r="K65">
+        <v>36</v>
+      </c>
+      <c r="L65">
+        <v>1.0947621685557199E-5</v>
+      </c>
+      <c r="M65">
+        <v>5.4409679777219196E-3</v>
+      </c>
+      <c r="N65">
+        <v>5.4959272502241597E-5</v>
+      </c>
+      <c r="O65">
+        <v>1</v>
+      </c>
+      <c r="P65">
+        <v>1</v>
+      </c>
+      <c r="Q65">
+        <v>0</v>
+      </c>
+      <c r="R65" t="s">
+        <v>173</v>
+      </c>
+      <c r="S65" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>174</v>
+      </c>
+      <c r="B66">
+        <v>1276</v>
+      </c>
+      <c r="C66">
+        <v>294</v>
+      </c>
+      <c r="D66">
+        <v>390</v>
+      </c>
+      <c r="E66">
+        <v>716</v>
+      </c>
+      <c r="F66" t="s">
+        <v>175</v>
+      </c>
+      <c r="G66">
+        <v>18478013</v>
+      </c>
+      <c r="H66">
+        <v>79341</v>
+      </c>
+      <c r="I66">
+        <v>18398672</v>
+      </c>
+      <c r="J66">
+        <v>26324</v>
+      </c>
+      <c r="K66">
+        <v>211</v>
+      </c>
+      <c r="L66" s="1">
+        <v>1.02063335813638E-16</v>
+      </c>
+      <c r="M66" s="1">
+        <v>5.0725477899378301E-14</v>
+      </c>
+      <c r="N66" s="1">
+        <v>7.4596291028497498E-16</v>
+      </c>
+      <c r="O66">
+        <v>1</v>
+      </c>
+      <c r="P66">
+        <v>1</v>
+      </c>
+      <c r="Q66">
+        <v>0</v>
+      </c>
+      <c r="R66" t="s">
+        <v>176</v>
+      </c>
+      <c r="S66" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>177</v>
+      </c>
+      <c r="B67">
+        <v>8348</v>
+      </c>
+      <c r="C67">
+        <v>1552</v>
+      </c>
+      <c r="D67">
+        <v>2104</v>
+      </c>
+      <c r="E67">
+        <v>4279</v>
+      </c>
+      <c r="F67" t="s">
+        <v>178</v>
+      </c>
+      <c r="G67">
+        <v>18478013</v>
+      </c>
+      <c r="H67">
+        <v>79341</v>
+      </c>
+      <c r="I67">
+        <v>18398672</v>
+      </c>
+      <c r="J67">
+        <v>456922</v>
+      </c>
+      <c r="K67">
+        <v>3818</v>
+      </c>
+      <c r="L67" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="M67" s="1">
+        <v>0</v>
+      </c>
+      <c r="N67" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="O67">
+        <v>1</v>
+      </c>
+      <c r="P67">
+        <v>1</v>
+      </c>
+      <c r="Q67">
+        <v>0</v>
+      </c>
+      <c r="R67" t="s">
+        <v>21</v>
+      </c>
+      <c r="S67" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>181</v>
+      </c>
+      <c r="B68">
+        <v>838</v>
+      </c>
+      <c r="C68">
+        <v>201</v>
+      </c>
+      <c r="D68">
+        <v>270</v>
+      </c>
+      <c r="E68">
+        <v>474</v>
+      </c>
+      <c r="F68" t="s">
+        <v>182</v>
+      </c>
+      <c r="G68">
+        <v>18478013</v>
+      </c>
+      <c r="H68">
+        <v>79341</v>
+      </c>
+      <c r="I68">
+        <v>18398672</v>
+      </c>
+      <c r="J68">
+        <v>67187</v>
+      </c>
+      <c r="K68">
+        <v>456</v>
+      </c>
+      <c r="L68" s="1">
+        <v>4.0968972248261102E-20</v>
+      </c>
+      <c r="M68" s="1">
+        <v>2.0361579207385699E-17</v>
+      </c>
+      <c r="N68" s="1">
+        <v>3.2841256786106E-19</v>
+      </c>
+      <c r="O68">
+        <v>1</v>
+      </c>
+      <c r="P68">
+        <v>1</v>
+      </c>
+      <c r="Q68">
+        <v>0</v>
+      </c>
+      <c r="R68" t="s">
+        <v>21</v>
+      </c>
+      <c r="S68" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>183</v>
+      </c>
+      <c r="B69">
+        <v>2528</v>
+      </c>
+      <c r="C69">
+        <v>534</v>
+      </c>
+      <c r="D69">
+        <v>698</v>
+      </c>
+      <c r="E69">
+        <v>1357</v>
+      </c>
+      <c r="F69" t="s">
+        <v>184</v>
+      </c>
+      <c r="G69">
+        <v>18478013</v>
+      </c>
+      <c r="H69">
+        <v>79341</v>
+      </c>
+      <c r="I69">
+        <v>18398672</v>
+      </c>
+      <c r="J69">
+        <v>380684</v>
+      </c>
+      <c r="K69">
+        <v>2818</v>
+      </c>
+      <c r="L69" s="1">
+        <v>7.8688070933650098E-160</v>
+      </c>
+      <c r="M69" s="1">
+        <v>3.9107971254024103E-157</v>
+      </c>
+      <c r="N69" s="1">
+        <v>1.4484433797786699E-158</v>
+      </c>
+      <c r="O69">
+        <v>1</v>
+      </c>
+      <c r="P69">
+        <v>1</v>
+      </c>
+      <c r="Q69">
+        <v>0</v>
+      </c>
+      <c r="R69" t="s">
+        <v>21</v>
+      </c>
+      <c r="S69" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>185</v>
+      </c>
+      <c r="B70">
+        <v>2401</v>
+      </c>
+      <c r="C70">
+        <v>516</v>
+      </c>
+      <c r="D70">
+        <v>693</v>
+      </c>
+      <c r="E70">
+        <v>1305</v>
+      </c>
+      <c r="F70" t="s">
+        <v>186</v>
+      </c>
+      <c r="G70">
+        <v>18478013</v>
+      </c>
+      <c r="H70">
+        <v>79341</v>
+      </c>
+      <c r="I70">
+        <v>18398672</v>
+      </c>
+      <c r="J70">
+        <v>213191</v>
+      </c>
+      <c r="K70">
+        <v>1542</v>
+      </c>
+      <c r="L70" s="1">
+        <v>6.4005430761527395E-81</v>
+      </c>
+      <c r="M70" s="1">
+        <v>3.1810699088479099E-78</v>
+      </c>
+      <c r="N70" s="1">
+        <v>8.3712366022313497E-80</v>
+      </c>
+      <c r="O70">
+        <v>1</v>
+      </c>
+      <c r="P70">
+        <v>1</v>
+      </c>
+      <c r="Q70">
+        <v>0</v>
+      </c>
+      <c r="R70" t="s">
+        <v>21</v>
+      </c>
+      <c r="S70" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>187</v>
+      </c>
+      <c r="B71">
+        <v>2707</v>
+      </c>
+      <c r="C71">
+        <v>573</v>
+      </c>
+      <c r="D71">
+        <v>790</v>
+      </c>
+      <c r="E71">
+        <v>1456</v>
+      </c>
+      <c r="F71" t="s">
+        <v>188</v>
+      </c>
+      <c r="G71">
+        <v>18478013</v>
+      </c>
+      <c r="H71">
+        <v>79341</v>
+      </c>
+      <c r="I71">
+        <v>18398672</v>
+      </c>
+      <c r="J71">
+        <v>313703</v>
+      </c>
+      <c r="K71">
+        <v>2327</v>
+      </c>
+      <c r="L71" s="1">
+        <v>1.07515618775062E-132</v>
+      </c>
+      <c r="M71" s="1">
+        <v>5.3435262531205603E-130</v>
+      </c>
+      <c r="N71" s="1">
+        <v>1.7237181461679201E-131</v>
+      </c>
+      <c r="O71">
+        <v>1</v>
+      </c>
+      <c r="P71">
+        <v>1</v>
+      </c>
+      <c r="Q71">
+        <v>0</v>
+      </c>
+      <c r="R71" t="s">
+        <v>21</v>
+      </c>
+      <c r="S71" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>189</v>
+      </c>
+      <c r="B72">
+        <v>1556</v>
+      </c>
+      <c r="C72">
+        <v>346</v>
+      </c>
+      <c r="D72">
+        <v>429</v>
+      </c>
+      <c r="E72">
+        <v>877</v>
+      </c>
+      <c r="F72" t="s">
+        <v>190</v>
+      </c>
+      <c r="G72">
+        <v>18478013</v>
+      </c>
+      <c r="H72">
+        <v>79341</v>
+      </c>
+      <c r="I72">
+        <v>18398672</v>
+      </c>
+      <c r="J72">
+        <v>429234</v>
+      </c>
+      <c r="K72">
+        <v>4245</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>0</v>
+      </c>
+      <c r="O72">
+        <v>1</v>
+      </c>
+      <c r="P72">
+        <v>0</v>
+      </c>
+      <c r="Q72">
+        <v>1</v>
+      </c>
+      <c r="R72" t="s">
+        <v>21</v>
+      </c>
+      <c r="S72" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>192</v>
+      </c>
+      <c r="B73">
+        <v>1721</v>
+      </c>
+      <c r="C73">
+        <v>373</v>
+      </c>
+      <c r="D73">
+        <v>469</v>
+      </c>
+      <c r="E73">
+        <v>955</v>
+      </c>
+      <c r="F73" t="s">
+        <v>193</v>
+      </c>
+      <c r="G73">
+        <v>18478013</v>
+      </c>
+      <c r="H73">
+        <v>79341</v>
+      </c>
+      <c r="I73">
+        <v>18398672</v>
+      </c>
+      <c r="J73">
+        <v>449134</v>
+      </c>
+      <c r="K73">
+        <v>5332</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>0</v>
+      </c>
+      <c r="O73">
+        <v>1</v>
+      </c>
+      <c r="P73">
+        <v>0</v>
+      </c>
+      <c r="Q73">
+        <v>1</v>
+      </c>
+      <c r="R73" t="s">
+        <v>21</v>
+      </c>
+      <c r="S73" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>194</v>
+      </c>
+      <c r="B74">
+        <v>1596</v>
+      </c>
+      <c r="C74">
+        <v>354</v>
+      </c>
+      <c r="D74">
+        <v>440</v>
+      </c>
+      <c r="E74">
+        <v>899</v>
+      </c>
+      <c r="F74" t="s">
+        <v>195</v>
+      </c>
+      <c r="G74">
+        <v>18478013</v>
+      </c>
+      <c r="H74">
+        <v>79341</v>
+      </c>
+      <c r="I74">
+        <v>18398672</v>
+      </c>
+      <c r="J74">
+        <v>445446</v>
+      </c>
+      <c r="K74">
+        <v>4820</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>0</v>
+      </c>
+      <c r="O74">
+        <v>1</v>
+      </c>
+      <c r="P74">
+        <v>0</v>
+      </c>
+      <c r="Q74">
+        <v>1</v>
+      </c>
+      <c r="R74" t="s">
+        <v>21</v>
+      </c>
+      <c r="S74" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>196</v>
+      </c>
+      <c r="B75">
+        <v>1394</v>
+      </c>
+      <c r="C75">
+        <v>300</v>
+      </c>
+      <c r="D75">
+        <v>438</v>
+      </c>
+      <c r="E75">
+        <v>785</v>
+      </c>
+      <c r="F75" t="s">
+        <v>197</v>
+      </c>
+      <c r="G75">
+        <v>18478013</v>
+      </c>
+      <c r="H75">
+        <v>79341</v>
+      </c>
+      <c r="I75">
+        <v>18398672</v>
+      </c>
+      <c r="J75">
+        <v>89387</v>
+      </c>
+      <c r="K75">
+        <v>488</v>
+      </c>
+      <c r="L75">
+        <v>1.60113037011078E-7</v>
+      </c>
+      <c r="M75">
+        <v>7.9576179394506003E-5</v>
+      </c>
+      <c r="N75">
+        <v>8.8417977105006699E-7</v>
+      </c>
+      <c r="O75">
+        <v>0</v>
+      </c>
+      <c r="P75">
+        <v>1</v>
+      </c>
+      <c r="Q75">
+        <v>1</v>
+      </c>
+      <c r="R75" t="s">
+        <v>198</v>
+      </c>
+      <c r="S75" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>200</v>
+      </c>
+      <c r="B76">
+        <v>1216</v>
+      </c>
+      <c r="C76">
+        <v>323</v>
+      </c>
+      <c r="D76">
+        <v>497</v>
+      </c>
+      <c r="E76">
+        <v>712</v>
+      </c>
+      <c r="F76" t="s">
+        <v>201</v>
+      </c>
+      <c r="G76">
+        <v>18478013</v>
+      </c>
+      <c r="H76">
+        <v>79341</v>
+      </c>
+      <c r="I76">
+        <v>18398672</v>
+      </c>
+      <c r="J76">
+        <v>59240</v>
+      </c>
+      <c r="K76">
+        <v>396</v>
+      </c>
+      <c r="L76" s="1">
+        <v>9.9632696047042198E-17</v>
+      </c>
+      <c r="M76" s="1">
+        <v>4.9517449935380003E-14</v>
+      </c>
+      <c r="N76" s="1">
+        <v>7.3906641694597002E-16</v>
+      </c>
+      <c r="O76">
+        <v>1</v>
+      </c>
+      <c r="P76">
+        <v>1</v>
+      </c>
+      <c r="Q76">
+        <v>1</v>
+      </c>
+      <c r="R76" t="s">
+        <v>202</v>
+      </c>
+      <c r="S76" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>204</v>
+      </c>
+      <c r="B77">
+        <v>843</v>
+      </c>
+      <c r="C77">
+        <v>277</v>
+      </c>
+      <c r="D77">
+        <v>370</v>
+      </c>
+      <c r="E77">
+        <v>551</v>
+      </c>
+      <c r="F77" t="s">
+        <v>205</v>
+      </c>
+      <c r="G77">
+        <v>18478013</v>
+      </c>
+      <c r="H77">
+        <v>79341</v>
+      </c>
+      <c r="I77">
+        <v>18398672</v>
+      </c>
+      <c r="J77">
+        <v>625993</v>
+      </c>
+      <c r="K77">
+        <v>3809</v>
+      </c>
+      <c r="L77" s="1">
+        <v>3.2818919092961799E-96</v>
+      </c>
+      <c r="M77" s="1">
+        <v>1.6311002789202001E-93</v>
+      </c>
+      <c r="N77" s="1">
+        <v>4.6602865112005703E-95</v>
+      </c>
+      <c r="O77">
+        <v>1</v>
+      </c>
+      <c r="P77">
+        <v>1</v>
+      </c>
+      <c r="Q77">
+        <v>1</v>
+      </c>
+      <c r="R77" t="s">
+        <v>21</v>
+      </c>
+      <c r="S77" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>206</v>
+      </c>
+      <c r="B78">
+        <v>1210</v>
+      </c>
+      <c r="C78">
+        <v>321</v>
+      </c>
+      <c r="D78">
+        <v>495</v>
+      </c>
+      <c r="E78">
+        <v>710</v>
+      </c>
+      <c r="F78" t="s">
+        <v>207</v>
+      </c>
+      <c r="G78">
+        <v>18478013</v>
+      </c>
+      <c r="H78">
+        <v>79341</v>
+      </c>
+      <c r="I78">
+        <v>18398672</v>
+      </c>
+      <c r="J78">
+        <v>159437</v>
+      </c>
+      <c r="K78">
+        <v>1176</v>
+      </c>
+      <c r="L78" s="1">
+        <v>3.3537832621915802E-66</v>
+      </c>
+      <c r="M78" s="1">
+        <v>1.66683028130922E-63</v>
+      </c>
+      <c r="N78" s="1">
+        <v>4.1670757032730396E-65</v>
+      </c>
+      <c r="O78">
+        <v>1</v>
+      </c>
+      <c r="P78">
+        <v>1</v>
+      </c>
+      <c r="Q78">
+        <v>1</v>
+      </c>
+      <c r="R78" t="s">
+        <v>21</v>
+      </c>
+      <c r="S78" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>208</v>
+      </c>
+      <c r="B79">
+        <v>4704</v>
+      </c>
+      <c r="C79">
+        <v>1044</v>
+      </c>
+      <c r="D79">
+        <v>1474</v>
+      </c>
+      <c r="E79">
+        <v>2598</v>
+      </c>
+      <c r="F79" t="s">
+        <v>209</v>
+      </c>
+      <c r="G79">
+        <v>18478013</v>
+      </c>
+      <c r="H79">
+        <v>79341</v>
+      </c>
+      <c r="I79">
+        <v>18398672</v>
+      </c>
+      <c r="J79">
+        <v>62425</v>
+      </c>
+      <c r="K79">
+        <v>353</v>
+      </c>
+      <c r="L79">
+        <v>3.7359417096022697E-7</v>
+      </c>
+      <c r="M79">
+        <v>1.85676302967233E-4</v>
+      </c>
+      <c r="N79">
+        <v>2.0403989337058599E-6</v>
+      </c>
+      <c r="O79">
+        <v>1</v>
+      </c>
+      <c r="P79">
+        <v>1</v>
+      </c>
+      <c r="Q79">
+        <v>1</v>
+      </c>
+      <c r="R79" t="s">
+        <v>210</v>
+      </c>
+      <c r="S79" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>211</v>
+      </c>
+      <c r="B80">
+        <v>119</v>
+      </c>
+      <c r="C80">
+        <v>52</v>
+      </c>
+      <c r="D80">
+        <v>64</v>
+      </c>
+      <c r="E80">
+        <v>88</v>
+      </c>
+      <c r="F80" t="s">
+        <v>212</v>
+      </c>
+      <c r="G80">
+        <v>18478013</v>
+      </c>
+      <c r="H80">
+        <v>79341</v>
+      </c>
+      <c r="I80">
+        <v>18398672</v>
+      </c>
+      <c r="J80">
+        <v>29780</v>
+      </c>
+      <c r="K80">
+        <v>235</v>
+      </c>
+      <c r="L80" s="1">
+        <v>1.12533253574833E-17</v>
+      </c>
+      <c r="M80" s="1">
+        <v>5.5929027026692001E-15</v>
+      </c>
+      <c r="N80" s="1">
+        <v>8.4740950040442395E-17</v>
+      </c>
+      <c r="O80">
+        <v>1</v>
+      </c>
+      <c r="P80">
+        <v>1</v>
+      </c>
+      <c r="Q80">
+        <v>1</v>
+      </c>
+      <c r="R80" t="s">
+        <v>213</v>
+      </c>
+      <c r="S80" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>214</v>
+      </c>
+      <c r="B81">
+        <v>1550</v>
+      </c>
+      <c r="C81">
+        <v>355</v>
+      </c>
+      <c r="D81">
+        <v>499</v>
+      </c>
+      <c r="E81">
+        <v>872</v>
+      </c>
+      <c r="F81" t="s">
+        <v>215</v>
+      </c>
+      <c r="G81">
+        <v>18478013</v>
+      </c>
+      <c r="H81">
+        <v>79341</v>
+      </c>
+      <c r="I81">
+        <v>18398672</v>
+      </c>
+      <c r="J81">
+        <v>18981</v>
+      </c>
+      <c r="K81">
+        <v>151</v>
+      </c>
+      <c r="L81" s="1">
+        <v>3.2755564457294299E-12</v>
+      </c>
+      <c r="M81" s="1">
+        <v>1.6279515535275299E-9</v>
+      </c>
+      <c r="N81" s="1">
+        <v>2.1706020713700301E-11</v>
+      </c>
+      <c r="O81">
+        <v>1</v>
+      </c>
+      <c r="P81">
+        <v>1</v>
+      </c>
+      <c r="Q81">
+        <v>1</v>
+      </c>
+      <c r="R81" t="s">
+        <v>216</v>
+      </c>
+      <c r="S81" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>217</v>
+      </c>
+      <c r="B82">
+        <v>2128</v>
+      </c>
+      <c r="C82">
+        <v>500</v>
+      </c>
+      <c r="D82">
+        <v>733</v>
+      </c>
+      <c r="E82">
+        <v>1179</v>
+      </c>
+      <c r="F82" t="s">
+        <v>218</v>
+      </c>
+      <c r="G82">
+        <v>18478013</v>
+      </c>
+      <c r="H82">
+        <v>79341</v>
+      </c>
+      <c r="I82">
+        <v>18398672</v>
+      </c>
+      <c r="J82">
+        <v>176146</v>
+      </c>
+      <c r="K82">
+        <v>1093</v>
+      </c>
+      <c r="L82" s="1">
+        <v>3.6983114296317E-31</v>
+      </c>
+      <c r="M82" s="1">
+        <v>1.83806078052695E-28</v>
+      </c>
+      <c r="N82" s="1">
+        <v>3.4038162602351003E-30</v>
+      </c>
+      <c r="O82">
+        <v>1</v>
+      </c>
+      <c r="P82">
+        <v>1</v>
+      </c>
+      <c r="Q82">
+        <v>1</v>
+      </c>
+      <c r="R82" t="s">
+        <v>21</v>
+      </c>
+      <c r="S82" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>219</v>
+      </c>
+      <c r="B83">
+        <v>716</v>
+      </c>
+      <c r="C83">
+        <v>198</v>
+      </c>
+      <c r="D83">
+        <v>313</v>
+      </c>
+      <c r="E83">
+        <v>431</v>
+      </c>
+      <c r="F83" t="s">
+        <v>220</v>
+      </c>
+      <c r="G83">
+        <v>18478013</v>
+      </c>
+      <c r="H83">
+        <v>79341</v>
+      </c>
+      <c r="I83">
+        <v>18398672</v>
+      </c>
+      <c r="J83">
+        <v>9777</v>
+      </c>
+      <c r="K83">
+        <v>135</v>
+      </c>
+      <c r="L83" s="1">
+        <v>2.4736201679816E-30</v>
+      </c>
+      <c r="M83" s="1">
+        <v>1.2293892234868499E-27</v>
+      </c>
+      <c r="N83" s="1">
+        <v>2.1953378990836701E-29</v>
+      </c>
+      <c r="O83">
+        <v>1</v>
+      </c>
+      <c r="P83">
+        <v>1</v>
+      </c>
+      <c r="Q83">
+        <v>1</v>
+      </c>
+      <c r="R83" t="s">
+        <v>21</v>
+      </c>
+      <c r="S83" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>221</v>
+      </c>
+      <c r="B84">
+        <v>733</v>
+      </c>
+      <c r="C84">
+        <v>201</v>
+      </c>
+      <c r="D84">
+        <v>262</v>
+      </c>
+      <c r="E84">
+        <v>442</v>
+      </c>
+      <c r="F84" t="s">
+        <v>222</v>
+      </c>
+      <c r="G84">
+        <v>18478013</v>
+      </c>
+      <c r="H84">
+        <v>79341</v>
+      </c>
+      <c r="I84">
+        <v>18398672</v>
+      </c>
+      <c r="J84">
+        <v>170232</v>
+      </c>
+      <c r="K84">
+        <v>2249</v>
+      </c>
+      <c r="L84">
+        <v>0</v>
+      </c>
+      <c r="M84">
+        <v>0</v>
+      </c>
+      <c r="N84">
+        <v>0</v>
+      </c>
+      <c r="O84">
+        <v>1</v>
+      </c>
+      <c r="P84">
+        <v>1</v>
+      </c>
+      <c r="Q84">
+        <v>1</v>
+      </c>
+      <c r="R84" t="s">
+        <v>21</v>
+      </c>
+      <c r="S84" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="85" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>223</v>
+      </c>
+      <c r="B85">
+        <v>705</v>
+      </c>
+      <c r="C85">
+        <v>194</v>
+      </c>
+      <c r="D85">
+        <v>252</v>
+      </c>
+      <c r="E85">
+        <v>425</v>
+      </c>
+      <c r="F85" t="s">
+        <v>224</v>
+      </c>
+      <c r="G85">
+        <v>18478013</v>
+      </c>
+      <c r="H85">
+        <v>79341</v>
+      </c>
+      <c r="I85">
+        <v>18398672</v>
+      </c>
+      <c r="J85">
+        <v>26640</v>
+      </c>
+      <c r="K85">
+        <v>232</v>
+      </c>
+      <c r="L85" s="1">
+        <v>2.4376700923233699E-22</v>
+      </c>
+      <c r="M85" s="1">
+        <v>1.2115220358847101E-19</v>
+      </c>
+      <c r="N85" s="1">
+        <v>1.98610169817166E-21</v>
+      </c>
+      <c r="O85">
+        <v>1</v>
+      </c>
+      <c r="P85">
+        <v>1</v>
+      </c>
+      <c r="Q85">
+        <v>1</v>
+      </c>
+      <c r="R85" t="s">
+        <v>21</v>
+      </c>
+      <c r="S85" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="86" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>225</v>
+      </c>
+      <c r="B86">
+        <v>1301</v>
+      </c>
+      <c r="C86">
+        <v>417</v>
+      </c>
+      <c r="D86">
+        <v>556</v>
+      </c>
+      <c r="E86">
+        <v>844</v>
+      </c>
+      <c r="F86" t="s">
+        <v>226</v>
+      </c>
+      <c r="G86">
+        <v>18478013</v>
+      </c>
+      <c r="H86">
+        <v>79341</v>
+      </c>
+      <c r="I86">
+        <v>18398672</v>
+      </c>
+      <c r="J86">
+        <v>465518</v>
+      </c>
+      <c r="K86">
+        <v>2255</v>
+      </c>
+      <c r="L86" s="1">
+        <v>6.2163013317328901E-9</v>
+      </c>
+      <c r="M86">
+        <v>3.0895017618712502E-6</v>
+      </c>
+      <c r="N86" s="1">
+        <v>3.7676850754527399E-8</v>
+      </c>
+      <c r="O86">
+        <v>1</v>
+      </c>
+      <c r="P86">
+        <v>1</v>
+      </c>
+      <c r="Q86">
+        <v>1</v>
+      </c>
+      <c r="R86" t="s">
+        <v>227</v>
+      </c>
+      <c r="S86" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="87" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>228</v>
+      </c>
+      <c r="B87">
+        <v>782</v>
+      </c>
+      <c r="C87">
+        <v>209</v>
+      </c>
+      <c r="D87">
+        <v>271</v>
+      </c>
+      <c r="E87">
+        <v>469</v>
+      </c>
+      <c r="F87" t="s">
+        <v>229</v>
+      </c>
+      <c r="G87">
+        <v>18478013</v>
+      </c>
+      <c r="H87">
+        <v>79341</v>
+      </c>
+      <c r="I87">
+        <v>18398672</v>
+      </c>
+      <c r="J87">
+        <v>128177</v>
+      </c>
+      <c r="K87">
+        <v>664</v>
+      </c>
+      <c r="L87">
+        <v>1.27059972452723E-6</v>
+      </c>
+      <c r="M87">
+        <v>6.3148806309003399E-4</v>
+      </c>
+      <c r="N87">
+        <v>6.6472427693687796E-6</v>
+      </c>
+      <c r="O87">
+        <v>1</v>
+      </c>
+      <c r="P87">
+        <v>1</v>
+      </c>
+      <c r="Q87">
+        <v>1</v>
+      </c>
+      <c r="R87" t="s">
+        <v>230</v>
+      </c>
+      <c r="S87" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="88" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>231</v>
+      </c>
+      <c r="B88">
+        <v>1990</v>
+      </c>
+      <c r="C88">
+        <v>568</v>
+      </c>
+      <c r="D88">
+        <v>758</v>
+      </c>
+      <c r="E88">
+        <v>1232</v>
+      </c>
+      <c r="F88" t="s">
+        <v>232</v>
+      </c>
+      <c r="G88">
+        <v>18478013</v>
+      </c>
+      <c r="H88">
+        <v>79341</v>
+      </c>
+      <c r="I88">
+        <v>18398672</v>
+      </c>
+      <c r="J88">
+        <v>408408</v>
+      </c>
+      <c r="K88">
+        <v>2318</v>
+      </c>
+      <c r="L88" s="1">
+        <v>4.7357034596938697E-39</v>
+      </c>
+      <c r="M88" s="1">
+        <v>2.3536446194678499E-36</v>
+      </c>
+      <c r="N88" s="1">
+        <v>4.80335636626093E-38</v>
+      </c>
+      <c r="O88">
+        <v>1</v>
+      </c>
+      <c r="P88">
+        <v>1</v>
+      </c>
+      <c r="Q88">
+        <v>1</v>
+      </c>
+      <c r="R88" t="s">
+        <v>21</v>
+      </c>
+      <c r="S88" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="89" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>233</v>
+      </c>
+      <c r="B89">
+        <v>2258</v>
+      </c>
+      <c r="C89">
+        <v>521</v>
+      </c>
+      <c r="D89">
+        <v>670</v>
+      </c>
+      <c r="E89">
+        <v>1280</v>
+      </c>
+      <c r="F89" t="s">
+        <v>234</v>
+      </c>
+      <c r="G89">
+        <v>18478013</v>
+      </c>
+      <c r="H89">
+        <v>79341</v>
+      </c>
+      <c r="I89">
+        <v>18398672</v>
+      </c>
+      <c r="J89">
+        <v>117927</v>
+      </c>
+      <c r="K89">
+        <v>600</v>
+      </c>
+      <c r="L89">
+        <v>2.5477498353162699E-5</v>
+      </c>
+      <c r="M89">
+        <v>1.2662316681521801E-2</v>
+      </c>
+      <c r="N89">
+        <v>1.2414035962276301E-4</v>
+      </c>
+      <c r="O89">
+        <v>1</v>
+      </c>
+      <c r="P89">
+        <v>1</v>
+      </c>
+      <c r="Q89">
+        <v>1</v>
+      </c>
+      <c r="R89" t="s">
+        <v>235</v>
+      </c>
+      <c r="S89" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="90" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>236</v>
+      </c>
+      <c r="B90">
+        <v>98</v>
+      </c>
+      <c r="C90">
+        <v>46</v>
+      </c>
+      <c r="D90">
         <v>55</v>
+      </c>
+      <c r="E90">
+        <v>73</v>
+      </c>
+      <c r="F90" t="s">
+        <v>237</v>
+      </c>
+      <c r="G90">
+        <v>18478013</v>
+      </c>
+      <c r="H90">
+        <v>79341</v>
+      </c>
+      <c r="I90">
+        <v>18398672</v>
+      </c>
+      <c r="J90">
+        <v>7214</v>
+      </c>
+      <c r="K90">
+        <v>75</v>
+      </c>
+      <c r="L90" s="1">
+        <v>1.38219628172472E-11</v>
+      </c>
+      <c r="M90" s="1">
+        <v>6.8695155201718604E-9</v>
+      </c>
+      <c r="N90" s="1">
+        <v>8.8070711797075105E-11</v>
+      </c>
+      <c r="O90">
+        <v>1</v>
+      </c>
+      <c r="P90">
+        <v>1</v>
+      </c>
+      <c r="Q90">
+        <v>1</v>
+      </c>
+      <c r="R90" t="s">
+        <v>238</v>
+      </c>
+      <c r="S90" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="91" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>239</v>
+      </c>
+      <c r="B91">
+        <v>252</v>
+      </c>
+      <c r="C91">
+        <v>99</v>
+      </c>
+      <c r="D91">
+        <v>131</v>
+      </c>
+      <c r="E91">
+        <v>177</v>
+      </c>
+      <c r="F91" t="s">
+        <v>240</v>
+      </c>
+      <c r="G91">
+        <v>18478013</v>
+      </c>
+      <c r="H91">
+        <v>79341</v>
+      </c>
+      <c r="I91">
+        <v>18398672</v>
+      </c>
+      <c r="J91">
+        <v>53831</v>
+      </c>
+      <c r="K91">
+        <v>292</v>
+      </c>
+      <c r="L91">
+        <v>6.1707126086783698E-5</v>
+      </c>
+      <c r="M91">
+        <v>3.06684416651315E-2</v>
+      </c>
+      <c r="N91">
+        <v>2.9775186082651902E-4</v>
+      </c>
+      <c r="O91">
+        <v>1</v>
+      </c>
+      <c r="P91">
+        <v>1</v>
+      </c>
+      <c r="Q91">
+        <v>1</v>
+      </c>
+      <c r="R91" t="s">
+        <v>241</v>
+      </c>
+      <c r="S91" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="92" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>242</v>
+      </c>
+      <c r="B92">
+        <v>227</v>
+      </c>
+      <c r="C92">
+        <v>92</v>
+      </c>
+      <c r="D92">
+        <v>118</v>
+      </c>
+      <c r="E92">
+        <v>163</v>
+      </c>
+      <c r="F92" t="s">
+        <v>243</v>
+      </c>
+      <c r="G92">
+        <v>18478013</v>
+      </c>
+      <c r="H92">
+        <v>79341</v>
+      </c>
+      <c r="I92">
+        <v>18398672</v>
+      </c>
+      <c r="J92">
+        <v>53883</v>
+      </c>
+      <c r="K92">
+        <v>329</v>
+      </c>
+      <c r="L92" s="1">
+        <v>7.8105695290557804E-10</v>
+      </c>
+      <c r="M92">
+        <v>3.8818530559407201E-7</v>
+      </c>
+      <c r="N92" s="1">
+        <v>4.7924111801737301E-9</v>
+      </c>
+      <c r="O92">
+        <v>1</v>
+      </c>
+      <c r="P92">
+        <v>1</v>
+      </c>
+      <c r="Q92">
+        <v>1</v>
+      </c>
+      <c r="R92" t="s">
+        <v>244</v>
+      </c>
+      <c r="S92" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="93" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>245</v>
+      </c>
+      <c r="B93">
+        <v>229</v>
+      </c>
+      <c r="C93">
+        <v>92</v>
+      </c>
+      <c r="D93">
+        <v>119</v>
+      </c>
+      <c r="E93">
+        <v>165</v>
+      </c>
+      <c r="F93" t="s">
+        <v>246</v>
+      </c>
+      <c r="G93">
+        <v>18478013</v>
+      </c>
+      <c r="H93">
+        <v>79341</v>
+      </c>
+      <c r="I93">
+        <v>18398672</v>
+      </c>
+      <c r="J93">
+        <v>9647</v>
+      </c>
+      <c r="K93">
+        <v>73</v>
+      </c>
+      <c r="L93">
+        <v>5.5052415872143396E-6</v>
+      </c>
+      <c r="M93">
+        <v>2.7361050688455299E-3</v>
+      </c>
+      <c r="N93">
+        <v>2.8207268750984801E-5</v>
+      </c>
+      <c r="O93">
+        <v>1</v>
+      </c>
+      <c r="P93">
+        <v>1</v>
+      </c>
+      <c r="Q93">
+        <v>1</v>
+      </c>
+      <c r="R93" t="s">
+        <v>247</v>
+      </c>
+      <c r="S93" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="94" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>248</v>
+      </c>
+      <c r="B94">
+        <v>172</v>
+      </c>
+      <c r="C94">
+        <v>71</v>
+      </c>
+      <c r="D94">
+        <v>91</v>
+      </c>
+      <c r="E94">
+        <v>125</v>
+      </c>
+      <c r="F94" t="s">
+        <v>249</v>
+      </c>
+      <c r="G94">
+        <v>18478013</v>
+      </c>
+      <c r="H94">
+        <v>79341</v>
+      </c>
+      <c r="I94">
+        <v>18398672</v>
+      </c>
+      <c r="J94">
+        <v>17937</v>
+      </c>
+      <c r="K94">
+        <v>129</v>
+      </c>
+      <c r="L94" s="1">
+        <v>3.6972962799898301E-8</v>
+      </c>
+      <c r="M94">
+        <v>1.8375562511549499E-5</v>
+      </c>
+      <c r="N94">
+        <v>2.1618308837117E-7</v>
+      </c>
+      <c r="O94">
+        <v>1</v>
+      </c>
+      <c r="P94">
+        <v>1</v>
+      </c>
+      <c r="Q94">
+        <v>1</v>
+      </c>
+      <c r="R94" t="s">
+        <v>250</v>
+      </c>
+      <c r="S94" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="95" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>251</v>
+      </c>
+      <c r="B95">
+        <v>243</v>
+      </c>
+      <c r="C95">
+        <v>83</v>
+      </c>
+      <c r="D95">
+        <v>119</v>
+      </c>
+      <c r="E95">
+        <v>165</v>
+      </c>
+      <c r="F95" t="s">
+        <v>252</v>
+      </c>
+      <c r="G95">
+        <v>18478013</v>
+      </c>
+      <c r="H95">
+        <v>79341</v>
+      </c>
+      <c r="I95">
+        <v>18398672</v>
+      </c>
+      <c r="J95">
+        <v>2837</v>
+      </c>
+      <c r="K95">
+        <v>33</v>
+      </c>
+      <c r="L95">
+        <v>5.6807441929470899E-7</v>
+      </c>
+      <c r="M95">
+        <v>2.8233298638946999E-4</v>
+      </c>
+      <c r="N95">
+        <v>3.0688368085812E-6</v>
+      </c>
+      <c r="O95">
+        <v>1</v>
+      </c>
+      <c r="P95">
+        <v>1</v>
+      </c>
+      <c r="Q95">
+        <v>1</v>
+      </c>
+      <c r="R95" t="s">
+        <v>253</v>
+      </c>
+      <c r="S95" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="96" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>254</v>
+      </c>
+      <c r="B96">
+        <v>376</v>
+      </c>
+      <c r="C96">
+        <v>115</v>
+      </c>
+      <c r="D96">
+        <v>170</v>
+      </c>
+      <c r="E96">
+        <v>241</v>
+      </c>
+      <c r="F96" t="s">
+        <v>255</v>
+      </c>
+      <c r="G96">
+        <v>18478013</v>
+      </c>
+      <c r="H96">
+        <v>79341</v>
+      </c>
+      <c r="I96">
+        <v>18398672</v>
+      </c>
+      <c r="J96">
+        <v>3207</v>
+      </c>
+      <c r="K96">
+        <v>33</v>
+      </c>
+      <c r="L96">
+        <v>7.2549021984299797E-6</v>
+      </c>
+      <c r="M96">
+        <v>3.6056863926197001E-3</v>
+      </c>
+      <c r="N96">
+        <v>3.6792718292037797E-5</v>
+      </c>
+      <c r="O96">
+        <v>1</v>
+      </c>
+      <c r="P96">
+        <v>1</v>
+      </c>
+      <c r="Q96">
+        <v>1</v>
+      </c>
+      <c r="R96" t="s">
+        <v>256</v>
+      </c>
+      <c r="S96" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="97" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>257</v>
+      </c>
+      <c r="B97">
+        <v>484</v>
+      </c>
+      <c r="C97">
+        <v>174</v>
+      </c>
+      <c r="D97">
+        <v>230</v>
+      </c>
+      <c r="E97">
+        <v>323</v>
+      </c>
+      <c r="F97" t="s">
+        <v>258</v>
+      </c>
+      <c r="G97">
+        <v>18478013</v>
+      </c>
+      <c r="H97">
+        <v>79341</v>
+      </c>
+      <c r="I97">
+        <v>18398672</v>
+      </c>
+      <c r="J97">
+        <v>196199</v>
+      </c>
+      <c r="K97">
+        <v>1358</v>
+      </c>
+      <c r="L97" s="1">
+        <v>5.3177621707390697E-61</v>
+      </c>
+      <c r="M97" s="1">
+        <v>2.6429277988573199E-58</v>
+      </c>
+      <c r="N97" s="1">
+        <v>6.44616536306663E-60</v>
+      </c>
+      <c r="O97">
+        <v>1</v>
+      </c>
+      <c r="P97">
+        <v>1</v>
+      </c>
+      <c r="Q97">
+        <v>1</v>
+      </c>
+      <c r="R97" t="s">
+        <v>21</v>
+      </c>
+      <c r="S97" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="98" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>259</v>
+      </c>
+      <c r="B98">
+        <v>631</v>
+      </c>
+      <c r="C98">
+        <v>185</v>
+      </c>
+      <c r="D98">
+        <v>273</v>
+      </c>
+      <c r="E98">
+        <v>396</v>
+      </c>
+      <c r="F98" t="s">
+        <v>260</v>
+      </c>
+      <c r="G98">
+        <v>18478013</v>
+      </c>
+      <c r="H98">
+        <v>79341</v>
+      </c>
+      <c r="I98">
+        <v>18398672</v>
+      </c>
+      <c r="J98">
+        <v>38729</v>
+      </c>
+      <c r="K98">
+        <v>405</v>
+      </c>
+      <c r="L98" s="1">
+        <v>1.42027849819684E-55</v>
+      </c>
+      <c r="M98" s="1">
+        <v>7.0587841360383E-53</v>
+      </c>
+      <c r="N98" s="1">
+        <v>1.60426912182689E-54</v>
+      </c>
+      <c r="O98">
+        <v>1</v>
+      </c>
+      <c r="P98">
+        <v>1</v>
+      </c>
+      <c r="Q98">
+        <v>1</v>
+      </c>
+      <c r="R98" t="s">
+        <v>21</v>
+      </c>
+      <c r="S98" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="99" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>261</v>
+      </c>
+      <c r="B99">
+        <v>1328</v>
+      </c>
+      <c r="C99">
+        <v>304</v>
+      </c>
+      <c r="D99">
+        <v>446</v>
+      </c>
+      <c r="E99">
+        <v>748</v>
+      </c>
+      <c r="F99" t="s">
+        <v>262</v>
+      </c>
+      <c r="G99">
+        <v>18478013</v>
+      </c>
+      <c r="H99">
+        <v>79341</v>
+      </c>
+      <c r="I99">
+        <v>18398672</v>
+      </c>
+      <c r="J99">
+        <v>4710</v>
+      </c>
+      <c r="K99">
+        <v>42</v>
+      </c>
+      <c r="L99">
+        <v>1.45016073660802E-5</v>
+      </c>
+      <c r="M99">
+        <v>7.2072988609418404E-3</v>
+      </c>
+      <c r="N99">
+        <v>7.1359394662790505E-5</v>
+      </c>
+      <c r="O99">
+        <v>1</v>
+      </c>
+      <c r="P99">
+        <v>1</v>
+      </c>
+      <c r="Q99">
+        <v>1</v>
+      </c>
+      <c r="R99" t="s">
+        <v>263</v>
+      </c>
+      <c r="S99" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="100" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>264</v>
+      </c>
+      <c r="B100">
+        <v>371</v>
+      </c>
+      <c r="C100">
+        <v>129</v>
+      </c>
+      <c r="D100">
+        <v>187</v>
+      </c>
+      <c r="E100">
+        <v>253</v>
+      </c>
+      <c r="F100" t="s">
+        <v>265</v>
+      </c>
+      <c r="G100">
+        <v>18478013</v>
+      </c>
+      <c r="H100">
+        <v>79341</v>
+      </c>
+      <c r="I100">
+        <v>18398672</v>
+      </c>
+      <c r="J100">
+        <v>3090</v>
+      </c>
+      <c r="K100">
+        <v>52</v>
+      </c>
+      <c r="L100" s="1">
+        <v>5.4025718631772197E-16</v>
+      </c>
+      <c r="M100" s="1">
+        <v>2.6850782159990801E-13</v>
+      </c>
+      <c r="N100" s="1">
+        <v>3.7818003042240598E-15</v>
+      </c>
+      <c r="O100">
+        <v>1</v>
+      </c>
+      <c r="P100">
+        <v>1</v>
+      </c>
+      <c r="Q100">
+        <v>1</v>
+      </c>
+      <c r="R100" t="s">
+        <v>266</v>
+      </c>
+      <c r="S100" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="101" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>267</v>
+      </c>
+      <c r="B101">
+        <v>1444</v>
+      </c>
+      <c r="C101">
+        <v>332</v>
+      </c>
+      <c r="D101">
+        <v>425</v>
+      </c>
+      <c r="E101">
+        <v>809</v>
+      </c>
+      <c r="F101" t="s">
+        <v>268</v>
+      </c>
+      <c r="G101">
+        <v>18478013</v>
+      </c>
+      <c r="H101">
+        <v>79341</v>
+      </c>
+      <c r="I101">
+        <v>18398672</v>
+      </c>
+      <c r="J101">
+        <v>43894</v>
+      </c>
+      <c r="K101">
+        <v>257</v>
+      </c>
+      <c r="L101">
+        <v>1.1588706160762901E-6</v>
+      </c>
+      <c r="M101">
+        <v>5.7595869618991605E-4</v>
+      </c>
+      <c r="N101">
+        <v>6.1272201722331504E-6</v>
+      </c>
+      <c r="O101">
+        <v>1</v>
+      </c>
+      <c r="P101">
+        <v>1</v>
+      </c>
+      <c r="Q101">
+        <v>1</v>
+      </c>
+      <c r="R101" t="s">
+        <v>269</v>
+      </c>
+      <c r="S101" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="102" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>270</v>
+      </c>
+      <c r="B102">
+        <v>2232</v>
+      </c>
+      <c r="C102">
+        <v>481</v>
+      </c>
+      <c r="D102">
+        <v>695</v>
+      </c>
+      <c r="E102">
+        <v>1224</v>
+      </c>
+      <c r="F102" t="s">
+        <v>271</v>
+      </c>
+      <c r="G102">
+        <v>18478013</v>
+      </c>
+      <c r="H102">
+        <v>79341</v>
+      </c>
+      <c r="I102">
+        <v>18398672</v>
+      </c>
+      <c r="J102">
+        <v>38384</v>
+      </c>
+      <c r="K102">
+        <v>273</v>
+      </c>
+      <c r="L102" s="1">
+        <v>6.7764851986039101E-15</v>
+      </c>
+      <c r="M102" s="1">
+        <v>3.36791314370614E-12</v>
+      </c>
+      <c r="N102" s="1">
+        <v>4.6776571440363099E-14</v>
+      </c>
+      <c r="O102">
+        <v>1</v>
+      </c>
+      <c r="P102">
+        <v>1</v>
+      </c>
+      <c r="Q102">
+        <v>1</v>
+      </c>
+      <c r="R102" t="s">
+        <v>272</v>
+      </c>
+      <c r="S102" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="103" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>273</v>
+      </c>
+      <c r="B103">
+        <v>753</v>
+      </c>
+      <c r="C103">
+        <v>185</v>
+      </c>
+      <c r="D103">
+        <v>273</v>
+      </c>
+      <c r="E103">
+        <v>451</v>
+      </c>
+      <c r="F103" t="s">
+        <v>274</v>
+      </c>
+      <c r="G103">
+        <v>18478013</v>
+      </c>
+      <c r="H103">
+        <v>79341</v>
+      </c>
+      <c r="I103">
+        <v>18398672</v>
+      </c>
+      <c r="J103">
+        <v>198610</v>
+      </c>
+      <c r="K103">
+        <v>1549</v>
+      </c>
+      <c r="L103" s="1">
+        <v>2.06138237491253E-103</v>
+      </c>
+      <c r="M103" s="1">
+        <v>1.02450704033153E-100</v>
+      </c>
+      <c r="N103" s="1">
+        <v>3.1045667888834201E-102</v>
+      </c>
+      <c r="O103">
+        <v>1</v>
+      </c>
+      <c r="P103">
+        <v>1</v>
+      </c>
+      <c r="Q103">
+        <v>1</v>
+      </c>
+      <c r="R103" t="s">
+        <v>21</v>
+      </c>
+      <c r="S103" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="104" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>275</v>
+      </c>
+      <c r="B104">
+        <v>4287</v>
+      </c>
+      <c r="C104">
+        <v>961</v>
+      </c>
+      <c r="D104">
+        <v>1329</v>
+      </c>
+      <c r="E104">
+        <v>2368</v>
+      </c>
+      <c r="F104" t="s">
+        <v>276</v>
+      </c>
+      <c r="G104">
+        <v>18478013</v>
+      </c>
+      <c r="H104">
+        <v>79341</v>
+      </c>
+      <c r="I104">
+        <v>18398672</v>
+      </c>
+      <c r="J104">
+        <v>565459</v>
+      </c>
+      <c r="K104">
+        <v>3450</v>
+      </c>
+      <c r="L104" s="1">
+        <v>2.8364718892585499E-88</v>
+      </c>
+      <c r="M104" s="1">
+        <v>1.4097265289615E-85</v>
+      </c>
+      <c r="N104" s="1">
+        <v>3.9159070248930502E-87</v>
+      </c>
+      <c r="O104">
+        <v>1</v>
+      </c>
+      <c r="P104">
+        <v>1</v>
+      </c>
+      <c r="Q104">
+        <v>1</v>
+      </c>
+      <c r="R104" t="s">
+        <v>21</v>
+      </c>
+      <c r="S104" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="105" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>277</v>
+      </c>
+      <c r="B105">
+        <v>4664</v>
+      </c>
+      <c r="C105">
+        <v>1040</v>
+      </c>
+      <c r="D105">
+        <v>1469</v>
+      </c>
+      <c r="E105">
+        <v>2577</v>
+      </c>
+      <c r="F105" t="s">
+        <v>278</v>
+      </c>
+      <c r="G105">
+        <v>18478013</v>
+      </c>
+      <c r="H105">
+        <v>79341</v>
+      </c>
+      <c r="I105">
+        <v>18398672</v>
+      </c>
+      <c r="J105">
+        <v>888988</v>
+      </c>
+      <c r="K105">
+        <v>5606</v>
+      </c>
+      <c r="L105" s="1">
+        <v>1.9214637402729101E-171</v>
+      </c>
+      <c r="M105" s="1">
+        <v>9.5496747891563598E-169</v>
+      </c>
+      <c r="N105" s="1">
+        <v>3.6729518419832102E-170</v>
+      </c>
+      <c r="O105">
+        <v>1</v>
+      </c>
+      <c r="P105">
+        <v>1</v>
+      </c>
+      <c r="Q105">
+        <v>1</v>
+      </c>
+      <c r="R105" t="s">
+        <v>21</v>
+      </c>
+      <c r="S105" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="106" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>279</v>
+      </c>
+      <c r="B106">
+        <v>168</v>
+      </c>
+      <c r="C106">
+        <v>73</v>
+      </c>
+      <c r="D106">
+        <v>92</v>
+      </c>
+      <c r="E106">
+        <v>123</v>
+      </c>
+      <c r="F106" t="s">
+        <v>280</v>
+      </c>
+      <c r="G106">
+        <v>18478013</v>
+      </c>
+      <c r="H106">
+        <v>79341</v>
+      </c>
+      <c r="I106">
+        <v>18398672</v>
+      </c>
+      <c r="J106">
+        <v>44649</v>
+      </c>
+      <c r="K106">
+        <v>271</v>
+      </c>
+      <c r="L106" s="1">
+        <v>3.5896196718056798E-8</v>
+      </c>
+      <c r="M106">
+        <v>1.7840409768874199E-5</v>
+      </c>
+      <c r="N106">
+        <v>2.1238583058183601E-7</v>
+      </c>
+      <c r="O106">
+        <v>1</v>
+      </c>
+      <c r="P106">
+        <v>1</v>
+      </c>
+      <c r="Q106">
+        <v>1</v>
+      </c>
+      <c r="R106" t="s">
+        <v>281</v>
+      </c>
+      <c r="S106" t="s">
+        <v>203</v>
       </c>
     </row>
   </sheetData>
